--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F7EBF-93EA-4DA9-B945-61FD0A64E3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B6EA45-C5FD-471E-825E-683F1E3D1CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="19845" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -387,55 +387,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -823,10 +823,10 @@
   <dimension ref="B1:DB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CN18" sqref="CN18"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -891,362 +891,362 @@
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="T4" s="14" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="T4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14" t="s">
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AH4" s="14" t="s">
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AH4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14" t="s">
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AV4" s="14" t="s">
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AV4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14" t="s">
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="14"/>
-      <c r="BJ4" s="14" t="s">
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BJ4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="BK4" s="14"/>
-      <c r="BL4" s="14"/>
-      <c r="BM4" s="14"/>
-      <c r="BN4" s="14"/>
-      <c r="BO4" s="14"/>
-      <c r="BP4" s="14" t="s">
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BQ4" s="14"/>
-      <c r="BR4" s="14"/>
-      <c r="BS4" s="14"/>
-      <c r="BT4" s="14"/>
-      <c r="BU4" s="14"/>
-      <c r="BV4" s="14"/>
-      <c r="BW4" s="14"/>
-      <c r="BY4" s="14" t="s">
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="19"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BY4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BZ4" s="14"/>
-      <c r="CA4" s="14"/>
-      <c r="CB4" s="14"/>
-      <c r="CC4" s="14"/>
-      <c r="CD4" s="14"/>
-      <c r="CE4" s="14" t="s">
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="14"/>
-      <c r="CH4" s="14"/>
-      <c r="CI4" s="14"/>
-      <c r="CJ4" s="14"/>
-      <c r="CK4" s="14"/>
-      <c r="CM4" s="14" t="s">
+      <c r="CF4" s="19"/>
+      <c r="CG4" s="19"/>
+      <c r="CH4" s="19"/>
+      <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
+      <c r="CK4" s="19"/>
+      <c r="CM4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14" t="s">
+      <c r="CN4" s="19"/>
+      <c r="CO4" s="19"/>
+      <c r="CP4" s="19"/>
+      <c r="CQ4" s="19"/>
+      <c r="CR4" s="19"/>
+      <c r="CS4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="CT4" s="14"/>
-      <c r="CU4" s="14"/>
-      <c r="CV4" s="14"/>
-      <c r="CW4" s="14"/>
-      <c r="CX4" s="14"/>
-      <c r="CY4" s="14"/>
-      <c r="CZ4" s="14"/>
+      <c r="CT4" s="19"/>
+      <c r="CU4" s="19"/>
+      <c r="CV4" s="19"/>
+      <c r="CW4" s="19"/>
+      <c r="CX4" s="19"/>
+      <c r="CY4" s="19"/>
+      <c r="CZ4" s="19"/>
     </row>
     <row r="5" spans="2:106" ht="14.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="18" t="s">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14" t="s">
+      <c r="V5" s="19"/>
+      <c r="W5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="18" t="s">
+      <c r="X5" s="19"/>
+      <c r="Y5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="14" t="s">
+      <c r="AA5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14" t="s">
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="18" t="s">
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="18" t="s">
+      <c r="AF5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AI5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14" t="s">
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="18" t="s">
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="AN5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AO5" s="14" t="s">
+      <c r="AO5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14" t="s">
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="18" t="s">
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="18" t="s">
+      <c r="AT5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AV5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="14" t="s">
+      <c r="AW5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14" t="s">
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="18" t="s">
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="BB5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="14" t="s">
+      <c r="BC5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14" t="s">
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="18" t="s">
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="18" t="s">
+      <c r="BH5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="BJ5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="14" t="s">
+      <c r="BK5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14" t="s">
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="18" t="s">
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="BP5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="14" t="s">
+      <c r="BQ5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="14"/>
-      <c r="BS5" s="14" t="s">
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BT5" s="14"/>
-      <c r="BU5" s="18" t="s">
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="18" t="s">
+      <c r="BV5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="18" t="s">
+      <c r="BW5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="14" t="s">
+      <c r="BZ5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="14" t="s">
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="18" t="s">
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="CE5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CF5" s="14" t="s">
+      <c r="CF5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14" t="s">
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="18" t="s">
+      <c r="CI5" s="19"/>
+      <c r="CJ5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="18" t="s">
+      <c r="CK5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="CM5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="14" t="s">
+      <c r="CN5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CO5" s="14"/>
-      <c r="CP5" s="14" t="s">
+      <c r="CO5" s="19"/>
+      <c r="CP5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CQ5" s="14"/>
-      <c r="CR5" s="18" t="s">
+      <c r="CQ5" s="19"/>
+      <c r="CR5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="CS5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CT5" s="14" t="s">
+      <c r="CT5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CU5" s="14"/>
-      <c r="CV5" s="14" t="s">
+      <c r="CU5" s="19"/>
+      <c r="CV5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CW5" s="14"/>
-      <c r="CX5" s="18" t="s">
+      <c r="CW5" s="19"/>
+      <c r="CX5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="18" t="s">
+      <c r="CY5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="18" t="s">
+      <c r="CZ5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:106" ht="14.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
         <v>26</v>
@@ -1476,9 +1476,15 @@
       <c r="H7" s="9">
         <v>45048</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="9">
+        <v>45047</v>
+      </c>
+      <c r="J7" s="9">
+        <v>45048</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
       <c r="L7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1488,7 +1494,9 @@
       <c r="N7" s="9">
         <v>45054</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9">
+        <v>45048</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -1605,72 +1613,72 @@
       <c r="BW7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="BY7" s="19" t="str">
+      <c r="BY7" s="26" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="23">
+      <c r="BZ7" s="20">
         <f>BQ7+1</f>
         <v>45076</v>
       </c>
-      <c r="CA7" s="23">
+      <c r="CA7" s="20">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CB7" s="23"/>
-      <c r="CC7" s="23"/>
-      <c r="CD7" s="26"/>
-      <c r="CE7" s="29" t="s">
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="23"/>
+      <c r="CE7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="CF7" s="22">
+      <c r="CF7" s="17">
         <f>CA7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="22">
+      <c r="CG7" s="17">
         <f>CF7</f>
         <v>45076</v>
       </c>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="30"/>
-      <c r="CK7" s="26"/>
-      <c r="CM7" s="19" t="s">
+      <c r="CH7" s="17"/>
+      <c r="CI7" s="17"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="23"/>
+      <c r="CM7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="CN7" s="23">
+      <c r="CN7" s="20">
         <v>45077</v>
       </c>
-      <c r="CO7" s="23">
+      <c r="CO7" s="20">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CP7" s="23"/>
-      <c r="CQ7" s="23"/>
-      <c r="CR7" s="26"/>
-      <c r="CS7" s="29" t="s">
+      <c r="CP7" s="20"/>
+      <c r="CQ7" s="20"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="CT7" s="22">
+      <c r="CT7" s="17">
         <f>CO7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="22">
+      <c r="CU7" s="17">
         <f>CT7</f>
         <v>45077</v>
       </c>
-      <c r="CV7" s="22"/>
-      <c r="CW7" s="22"/>
-      <c r="CX7" s="30"/>
-      <c r="CY7" s="30"/>
-      <c r="CZ7" s="30"/>
+      <c r="CV7" s="17"/>
+      <c r="CW7" s="17"/>
+      <c r="CX7" s="16"/>
+      <c r="CY7" s="16"/>
+      <c r="CZ7" s="16"/>
       <c r="DB7" s="11"/>
     </row>
     <row r="8" spans="2:106" ht="42" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1688,9 +1696,15 @@
       <c r="H8" s="9">
         <v>45048</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="9">
+        <v>45047</v>
+      </c>
+      <c r="J8" s="9">
+        <v>45048</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
       <c r="L8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1700,7 +1714,9 @@
       <c r="N8" s="9">
         <v>45054</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="O8" s="9">
+        <v>45048</v>
+      </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -1818,39 +1834,39 @@
       <c r="BU8" s="10"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="20"/>
-      <c r="BZ8" s="24"/>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="24"/>
-      <c r="CD8" s="27"/>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="22"/>
-      <c r="CG8" s="22"/>
-      <c r="CH8" s="22"/>
-      <c r="CI8" s="22"/>
-      <c r="CJ8" s="30"/>
-      <c r="CK8" s="27"/>
-      <c r="CM8" s="20"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="24"/>
-      <c r="CP8" s="24"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="27"/>
-      <c r="CS8" s="29"/>
-      <c r="CT8" s="22"/>
-      <c r="CU8" s="22"/>
-      <c r="CV8" s="22"/>
-      <c r="CW8" s="22"/>
-      <c r="CX8" s="30"/>
-      <c r="CY8" s="30"/>
-      <c r="CZ8" s="30"/>
+      <c r="BY8" s="27"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="24"/>
+      <c r="CE8" s="18"/>
+      <c r="CF8" s="17"/>
+      <c r="CG8" s="17"/>
+      <c r="CH8" s="17"/>
+      <c r="CI8" s="17"/>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="24"/>
+      <c r="CM8" s="27"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="21"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
+      <c r="CR8" s="24"/>
+      <c r="CS8" s="18"/>
+      <c r="CT8" s="17"/>
+      <c r="CU8" s="17"/>
+      <c r="CV8" s="17"/>
+      <c r="CW8" s="17"/>
+      <c r="CX8" s="16"/>
+      <c r="CY8" s="16"/>
+      <c r="CZ8" s="16"/>
     </row>
     <row r="9" spans="2:106" ht="48.75" customHeight="1">
       <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
@@ -1866,9 +1882,15 @@
       <c r="H9" s="9">
         <v>45048</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="I9" s="9">
+        <v>45047</v>
+      </c>
+      <c r="J9" s="9">
+        <v>45048</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>44</v>
       </c>
@@ -1878,7 +1900,9 @@
       <c r="N9" s="9">
         <v>45054</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9">
+        <v>45048</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -1993,99 +2017,60 @@
       <c r="BU9" s="10"/>
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="25"/>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="28"/>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22"/>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="28"/>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="25"/>
-      <c r="CO9" s="25"/>
-      <c r="CP9" s="25"/>
-      <c r="CQ9" s="25"/>
-      <c r="CR9" s="28"/>
-      <c r="CS9" s="29"/>
-      <c r="CT9" s="22"/>
-      <c r="CU9" s="22"/>
-      <c r="CV9" s="22"/>
-      <c r="CW9" s="22"/>
-      <c r="CX9" s="30"/>
-      <c r="CY9" s="30"/>
-      <c r="CZ9" s="30"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="22"/>
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="25"/>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="25"/>
+      <c r="CS9" s="18"/>
+      <c r="CT9" s="17"/>
+      <c r="CU9" s="17"/>
+      <c r="CV9" s="17"/>
+      <c r="CW9" s="17"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CY7:CY9"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CZ7:CZ9"/>
-    <mergeCell ref="CV7:CV9"/>
-    <mergeCell ref="CW7:CW9"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CX7:CX9"/>
-    <mergeCell ref="CS7:CS9"/>
-    <mergeCell ref="CT7:CT9"/>
-    <mergeCell ref="CU7:CU9"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CP7:CP9"/>
-    <mergeCell ref="CQ7:CQ9"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR9"/>
-    <mergeCell ref="CM7:CM9"/>
-    <mergeCell ref="CN7:CN9"/>
-    <mergeCell ref="CO7:CO9"/>
-    <mergeCell ref="CI7:CI9"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CJ7:CJ9"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CK7:CK9"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CF7:CF9"/>
-    <mergeCell ref="CG7:CG9"/>
-    <mergeCell ref="CH7:CH9"/>
-    <mergeCell ref="CC7:CC9"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CD7:CD9"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CE7:CE9"/>
-    <mergeCell ref="BZ7:BZ9"/>
-    <mergeCell ref="CA7:CA9"/>
-    <mergeCell ref="CB7:CB9"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BY7:BY9"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
@@ -2110,30 +2095,69 @@
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BY7:BY9"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CF7:CF9"/>
+    <mergeCell ref="CG7:CG9"/>
+    <mergeCell ref="CH7:CH9"/>
+    <mergeCell ref="CC7:CC9"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CD7:CD9"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CE7:CE9"/>
+    <mergeCell ref="BZ7:BZ9"/>
+    <mergeCell ref="CA7:CA9"/>
+    <mergeCell ref="CB7:CB9"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CP7:CP9"/>
+    <mergeCell ref="CQ7:CQ9"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR9"/>
+    <mergeCell ref="CM7:CM9"/>
+    <mergeCell ref="CN7:CN9"/>
+    <mergeCell ref="CO7:CO9"/>
+    <mergeCell ref="CI7:CI9"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CJ7:CJ9"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CK7:CK9"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CY7:CY9"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CZ7:CZ9"/>
+    <mergeCell ref="CV7:CV9"/>
+    <mergeCell ref="CW7:CW9"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CX7:CX9"/>
+    <mergeCell ref="CS7:CS9"/>
+    <mergeCell ref="CT7:CT9"/>
+    <mergeCell ref="CU7:CU9"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K9">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202305\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14267B93-6961-4860-8B38-F7D677D556AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51933660-0E53-4E80-AD37-490665585A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2550" yWindow="-16297" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,209 +494,149 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -704,7 +644,826 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="132">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1081,13 +1840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:DA11"/>
+  <dimension ref="B3:CZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1096,417 +1855,417 @@
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.625" style="8" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="43.125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13" style="8" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="17" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="2" style="1" customWidth="1"/>
-    <col min="19" max="19" width="40.25" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="56.625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="44.25" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="38" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="52.875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.625" style="66" customWidth="1"/>
-    <col min="47" max="47" width="30.625" style="65" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="52" width="6.5" style="66" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="35.25" style="67" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="59" width="6.5" style="66" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="66" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="36.625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="66" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="67" max="67" width="31" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="74" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.625" style="1" customWidth="1"/>
-    <col min="76" max="76" width="6.625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="77" max="88" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.625" style="66" customWidth="1"/>
-    <col min="90" max="90" width="6.625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="91" max="103" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="38" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="45" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:105" ht="24">
+    <row r="3" spans="2:103" ht="22.9">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:105" ht="33" customHeight="1">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:103" s="55" customFormat="1" ht="33" customHeight="1">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="S4" s="12" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="S4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12" t="s">
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AG4" s="12" t="s">
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AG4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12" t="s">
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="69" t="s">
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69" t="s">
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="69"/>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="82" t="s">
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="12"/>
-      <c r="BM4" s="12"/>
-      <c r="BN4" s="12"/>
-      <c r="BO4" s="12" t="s">
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="12"/>
-      <c r="BQ4" s="12"/>
-      <c r="BR4" s="12"/>
-      <c r="BS4" s="12"/>
-      <c r="BT4" s="12"/>
-      <c r="BU4" s="12"/>
-      <c r="BV4" s="12"/>
-      <c r="BX4" s="12" t="s">
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="20"/>
+      <c r="BR4" s="20"/>
+      <c r="BS4" s="20"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="20"/>
+      <c r="BX4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="12"/>
-      <c r="BZ4" s="12"/>
-      <c r="CA4" s="12"/>
-      <c r="CB4" s="12"/>
-      <c r="CC4" s="12"/>
-      <c r="CD4" s="12" t="s">
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
+      <c r="CA4" s="20"/>
+      <c r="CB4" s="20"/>
+      <c r="CC4" s="20"/>
+      <c r="CD4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="12"/>
-      <c r="CF4" s="12"/>
-      <c r="CG4" s="12"/>
-      <c r="CH4" s="12"/>
-      <c r="CI4" s="12"/>
-      <c r="CJ4" s="81"/>
-      <c r="CK4" s="57"/>
-      <c r="CL4" s="82" t="s">
+      <c r="CE4" s="20"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
+      <c r="CH4" s="20"/>
+      <c r="CI4" s="20"/>
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="58"/>
+      <c r="CL4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="12"/>
-      <c r="CN4" s="12"/>
-      <c r="CO4" s="12"/>
-      <c r="CP4" s="12"/>
-      <c r="CQ4" s="12"/>
-      <c r="CR4" s="12" t="s">
+      <c r="CM4" s="20"/>
+      <c r="CN4" s="20"/>
+      <c r="CO4" s="20"/>
+      <c r="CP4" s="20"/>
+      <c r="CQ4" s="20"/>
+      <c r="CR4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="12"/>
-      <c r="CT4" s="12"/>
-      <c r="CU4" s="12"/>
-      <c r="CV4" s="12"/>
-      <c r="CW4" s="12"/>
-      <c r="CX4" s="12"/>
-      <c r="CY4" s="12"/>
+      <c r="CS4" s="20"/>
+      <c r="CT4" s="20"/>
+      <c r="CU4" s="20"/>
+      <c r="CV4" s="20"/>
+      <c r="CW4" s="20"/>
+      <c r="CX4" s="20"/>
+      <c r="CY4" s="20"/>
     </row>
-    <row r="5" spans="2:105" ht="14.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
+    <row r="5" spans="2:103" ht="14.25">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="15" t="s">
+      <c r="O5" s="21"/>
+      <c r="P5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="s">
+      <c r="U5" s="21"/>
+      <c r="V5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="15" t="s">
+      <c r="W5" s="21"/>
+      <c r="X5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12" t="s">
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="15" t="s">
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AE5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AG5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AH5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12" t="s">
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="15" t="s">
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AM5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="12" t="s">
+      <c r="AN5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12" t="s">
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="15" t="s">
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="48" t="s">
+      <c r="AS5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="70" t="s">
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="69" t="s">
+      <c r="AV5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69" t="s">
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="71" t="s">
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="70" t="s">
+      <c r="BA5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="69" t="s">
+      <c r="BB5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="69"/>
-      <c r="BD5" s="69" t="s">
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="71" t="s">
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="71" t="s">
+      <c r="BG5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BH5" s="68"/>
-      <c r="BI5" s="53" t="s">
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="12" t="s">
+      <c r="BJ5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12" t="s">
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="15" t="s">
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="13" t="s">
+      <c r="BO5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="12" t="s">
+      <c r="BP5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="12"/>
-      <c r="BR5" s="12" t="s">
+      <c r="BQ5" s="21"/>
+      <c r="BR5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="12"/>
-      <c r="BT5" s="15" t="s">
+      <c r="BS5" s="21"/>
+      <c r="BT5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="15" t="s">
+      <c r="BU5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="15" t="s">
+      <c r="BV5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="13" t="s">
+      <c r="BX5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="12" t="s">
+      <c r="BY5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="12"/>
-      <c r="CA5" s="12" t="s">
+      <c r="BZ5" s="21"/>
+      <c r="CA5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="12"/>
-      <c r="CC5" s="15" t="s">
+      <c r="CB5" s="21"/>
+      <c r="CC5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="13" t="s">
+      <c r="CD5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="12" t="s">
+      <c r="CE5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="12"/>
-      <c r="CG5" s="12" t="s">
+      <c r="CF5" s="21"/>
+      <c r="CG5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="12"/>
-      <c r="CI5" s="15" t="s">
+      <c r="CH5" s="21"/>
+      <c r="CI5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="48" t="s">
+      <c r="CJ5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="CK5" s="57"/>
-      <c r="CL5" s="53" t="s">
+      <c r="CK5" s="14"/>
+      <c r="CL5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="12" t="s">
+      <c r="CM5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="12"/>
-      <c r="CO5" s="12" t="s">
+      <c r="CN5" s="21"/>
+      <c r="CO5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="12"/>
-      <c r="CQ5" s="15" t="s">
+      <c r="CP5" s="21"/>
+      <c r="CQ5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="13" t="s">
+      <c r="CR5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="12" t="s">
+      <c r="CS5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="12"/>
-      <c r="CU5" s="12" t="s">
+      <c r="CT5" s="21"/>
+      <c r="CU5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="12"/>
-      <c r="CW5" s="15" t="s">
+      <c r="CV5" s="21"/>
+      <c r="CW5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="15" t="s">
+      <c r="CX5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="15" t="s">
+      <c r="CY5" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:105" ht="14.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
+    <row r="6" spans="2:103" ht="14.25">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1519,8 +2278,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1533,9 +2292,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="S6" s="20"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1548,8 +2307,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1562,9 +2321,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AG6" s="13"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AG6" s="20"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1577,8 +2336,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,40 +2350,40 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="72" t="s">
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AW6" s="72" t="s">
+      <c r="AW6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AX6" s="72" t="s">
+      <c r="AX6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AY6" s="72" t="s">
+      <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="72" t="s">
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BC6" s="72" t="s">
+      <c r="BC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BD6" s="72" t="s">
+      <c r="BD6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BE6" s="72" t="s">
+      <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="70"/>
-      <c r="BG6" s="70"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="53"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="36"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1637,8 +2396,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="13"/>
-      <c r="BO6" s="13"/>
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="20"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1651,10 +2410,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="13"/>
-      <c r="BU6" s="13"/>
-      <c r="BV6" s="13"/>
-      <c r="BX6" s="13"/>
+      <c r="BT6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BX6" s="20"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1667,8 +2426,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="13"/>
-      <c r="CD6" s="13"/>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="20"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1681,10 +2440,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="13"/>
-      <c r="CJ6" s="49"/>
-      <c r="CK6" s="57"/>
-      <c r="CL6" s="53"/>
+      <c r="CI6" s="20"/>
+      <c r="CJ6" s="35"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="36"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1697,8 +2456,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="13"/>
-      <c r="CR6" s="13"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="20"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1711,21 +2470,21 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="13"/>
-      <c r="CX6" s="13"/>
-      <c r="CY6" s="13"/>
+      <c r="CW6" s="20"/>
+      <c r="CX6" s="20"/>
+      <c r="CY6" s="20"/>
     </row>
-    <row r="7" spans="2:105" ht="36.75" customHeight="1">
+    <row r="7" spans="2:103" ht="20" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="6">
@@ -1743,7 +2502,7 @@
       <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="51" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="6">
@@ -1757,9 +2516,9 @@
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="37"/>
-      <c r="S7" s="9" t="s">
-        <v>46</v>
+      <c r="Q7" s="12"/>
+      <c r="S7" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="T7" s="6">
         <v>45054</v>
@@ -1770,8 +2529,8 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="5" t="s">
-        <v>46</v>
+      <c r="Y7" s="51" t="s">
+        <v>45</v>
       </c>
       <c r="Z7" s="6">
         <v>45056</v>
@@ -1783,8 +2542,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="37"/>
-      <c r="AG7" s="9" t="s">
+      <c r="AE7" s="12"/>
+      <c r="AG7" s="48" t="s">
         <v>48</v>
       </c>
       <c r="AH7" s="6">
@@ -1796,7 +2555,7 @@
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
       <c r="AL7" s="7"/>
-      <c r="AM7" s="5" t="s">
+      <c r="AM7" s="51" t="s">
         <v>36</v>
       </c>
       <c r="AN7" s="6">
@@ -1809,38 +2568,38 @@
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="7"/>
-      <c r="AS7" s="58"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="73" t="s">
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" s="74">
+      <c r="AV7" s="6">
         <f>AO7+1</f>
         <v>45071</v>
       </c>
-      <c r="AW7" s="74">
+      <c r="AW7" s="6">
         <f>AV7</f>
         <v>45071</v>
       </c>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="75"/>
-      <c r="BA7" s="67" t="s">
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="BB7" s="74">
+      <c r="BB7" s="6">
         <v>45072</v>
       </c>
-      <c r="BC7" s="74">
+      <c r="BC7" s="6">
         <f>BB7</f>
         <v>45072</v>
       </c>
-      <c r="BD7" s="74"/>
-      <c r="BE7" s="74"/>
-      <c r="BF7" s="76"/>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="61" t="str">
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="53" t="str">
         <f>AU7</f>
         <v>張　秋実</v>
       </c>
@@ -1854,7 +2613,7 @@
       <c r="BL7" s="6"/>
       <c r="BM7" s="6"/>
       <c r="BN7" s="7"/>
-      <c r="BO7" s="5" t="s">
+      <c r="BO7" s="51" t="s">
         <v>46</v>
       </c>
       <c r="BP7" s="6">
@@ -1867,81 +2626,82 @@
       <c r="BR7" s="6"/>
       <c r="BS7" s="6"/>
       <c r="BT7" s="7"/>
-      <c r="BU7" s="40"/>
-      <c r="BV7" s="40" t="s">
+      <c r="BU7" s="13"/>
+      <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="16" t="s">
+      <c r="BX7" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="19">
+      <c r="BY7" s="28">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="19">
+      <c r="BZ7" s="28">
         <v>45076</v>
       </c>
-      <c r="CA7" s="43"/>
-      <c r="CB7" s="19"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="29" t="s">
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="28">
+        <v>45048</v>
+      </c>
+      <c r="CC7" s="31"/>
+      <c r="CD7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="19">
+      <c r="CE7" s="28">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="19">
+      <c r="CF7" s="28">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="19"/>
-      <c r="CH7" s="19"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="50"/>
-      <c r="CK7" s="57"/>
-      <c r="CL7" s="54" t="s">
+      <c r="CG7" s="28"/>
+      <c r="CH7" s="28"/>
+      <c r="CI7" s="31"/>
+      <c r="CJ7" s="37"/>
+      <c r="CK7" s="14"/>
+      <c r="CL7" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="19">
+      <c r="CM7" s="28">
         <v>45077</v>
       </c>
-      <c r="CN7" s="19">
+      <c r="CN7" s="28">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="19"/>
-      <c r="CP7" s="19"/>
-      <c r="CQ7" s="22"/>
-      <c r="CR7" s="29" t="s">
+      <c r="CO7" s="28"/>
+      <c r="CP7" s="28"/>
+      <c r="CQ7" s="31"/>
+      <c r="CR7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="43">
+      <c r="CS7" s="25">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="19">
+      <c r="CT7" s="28">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="19"/>
-      <c r="CV7" s="19"/>
-      <c r="CW7" s="22"/>
-      <c r="CX7" s="22"/>
-      <c r="CY7" s="22"/>
-      <c r="DA7" s="66"/>
+      <c r="CU7" s="28"/>
+      <c r="CV7" s="28"/>
+      <c r="CW7" s="31"/>
+      <c r="CX7" s="31"/>
+      <c r="CY7" s="31"/>
     </row>
-    <row r="8" spans="2:105" ht="42" customHeight="1">
+    <row r="8" spans="2:103" ht="20" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="6">
@@ -1959,7 +2719,7 @@
       <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="51" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="6">
@@ -1973,8 +2733,8 @@
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="37"/>
-      <c r="S8" s="9" t="s">
+      <c r="Q8" s="12"/>
+      <c r="S8" s="48" t="s">
         <v>36</v>
       </c>
       <c r="T8" s="6">
@@ -1986,7 +2746,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="51" t="s">
         <v>36</v>
       </c>
       <c r="Z8" s="6">
@@ -1999,9 +2759,9 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="7"/>
-      <c r="AE8" s="37"/>
-      <c r="AG8" s="9" t="s">
-        <v>47</v>
+      <c r="AE8" s="12"/>
+      <c r="AG8" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="AH8" s="6">
         <v>45057</v>
@@ -2012,7 +2772,7 @@
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
       <c r="AL8" s="7"/>
-      <c r="AM8" s="5" t="s">
+      <c r="AM8" s="51" t="s">
         <v>47</v>
       </c>
       <c r="AN8" s="6">
@@ -2025,38 +2785,38 @@
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="7"/>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="73" t="s">
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AV8" s="74">
-        <f t="shared" ref="AV8:AV9" si="2">AO8+1</f>
+      <c r="AV8" s="6">
+        <f t="shared" ref="AV8" si="2">AO8+1</f>
         <v>45071</v>
       </c>
-      <c r="AW8" s="74">
+      <c r="AW8" s="6">
         <f t="shared" ref="AW8:AW9" si="3">AV8</f>
         <v>45071</v>
       </c>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="75"/>
-      <c r="BA8" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB8" s="74">
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB8" s="6">
         <v>45072</v>
       </c>
-      <c r="BC8" s="74">
+      <c r="BC8" s="6">
         <f t="shared" ref="BC8:BC9" si="4">BB8</f>
         <v>45072</v>
       </c>
-      <c r="BD8" s="74"/>
-      <c r="BE8" s="74"/>
-      <c r="BF8" s="76"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="61" t="str">
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="54"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="53" t="str">
         <f t="shared" ref="BI8:BI9" si="5">AU8</f>
         <v>馬　広超、趙　博</v>
       </c>
@@ -2070,8 +2830,8 @@
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
       <c r="BN8" s="7"/>
-      <c r="BO8" s="5" t="s">
-        <v>48</v>
+      <c r="BO8" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="BP8" s="6">
         <f>BP7</f>
@@ -2084,236 +2844,236 @@
       <c r="BR8" s="6"/>
       <c r="BS8" s="6"/>
       <c r="BT8" s="7"/>
-      <c r="BU8" s="40"/>
-      <c r="BV8" s="40"/>
-      <c r="BX8" s="17"/>
-      <c r="BY8" s="20"/>
-      <c r="BZ8" s="20"/>
-      <c r="CA8" s="44"/>
-      <c r="CB8" s="20"/>
-      <c r="CC8" s="23"/>
-      <c r="CD8" s="46"/>
-      <c r="CE8" s="20"/>
-      <c r="CF8" s="20"/>
-      <c r="CG8" s="20"/>
-      <c r="CH8" s="20"/>
-      <c r="CI8" s="23"/>
-      <c r="CJ8" s="51"/>
-      <c r="CK8" s="57"/>
-      <c r="CL8" s="55"/>
-      <c r="CM8" s="20"/>
-      <c r="CN8" s="20"/>
-      <c r="CO8" s="20"/>
-      <c r="CP8" s="20"/>
-      <c r="CQ8" s="23"/>
-      <c r="CR8" s="46"/>
-      <c r="CS8" s="44"/>
-      <c r="CT8" s="20"/>
-      <c r="CU8" s="20"/>
-      <c r="CV8" s="20"/>
-      <c r="CW8" s="23"/>
-      <c r="CX8" s="23"/>
-      <c r="CY8" s="23"/>
+      <c r="BU8" s="13"/>
+      <c r="BV8" s="13"/>
+      <c r="BX8" s="44"/>
+      <c r="BY8" s="29"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="26"/>
+      <c r="CB8" s="29"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="23"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="29"/>
+      <c r="CG8" s="29"/>
+      <c r="CH8" s="29"/>
+      <c r="CI8" s="32"/>
+      <c r="CJ8" s="38"/>
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="41"/>
+      <c r="CM8" s="29"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="29"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="32"/>
+      <c r="CR8" s="23"/>
+      <c r="CS8" s="26"/>
+      <c r="CT8" s="29"/>
+      <c r="CU8" s="29"/>
+      <c r="CV8" s="29"/>
+      <c r="CW8" s="32"/>
+      <c r="CX8" s="32"/>
+      <c r="CY8" s="32"/>
     </row>
-    <row r="9" spans="2:105" ht="48.75" customHeight="1">
-      <c r="B9" s="26">
+    <row r="9" spans="2:103" ht="20" customHeight="1">
+      <c r="B9" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>45047</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>45048</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>45047</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>45048</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="6">
         <v>45048</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="6">
         <v>45054</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="6">
         <v>45048</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="11" t="s">
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="6">
         <v>45054</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="6">
         <v>45055</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="26" t="s">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="6">
         <v>45056</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="6">
         <f t="shared" si="0"/>
         <v>45056</v>
       </c>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="11" t="s">
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="6">
         <v>45057</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AI9" s="6">
         <v>45069</v>
       </c>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="26" t="s">
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AN9" s="9">
         <v>45070</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AO9" s="9">
         <f t="shared" si="1"/>
         <v>45070</v>
       </c>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV9" s="74">
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="6">
         <v>45071</v>
       </c>
-      <c r="AW9" s="74">
+      <c r="AW9" s="6">
         <f t="shared" si="3"/>
         <v>45071</v>
       </c>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="75"/>
-      <c r="BA9" s="67" t="s">
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BB9" s="74">
+      <c r="BB9" s="6">
         <v>45072</v>
       </c>
-      <c r="BC9" s="74">
+      <c r="BC9" s="6">
         <f t="shared" si="4"/>
         <v>45072</v>
       </c>
-      <c r="BD9" s="74"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="76"/>
-      <c r="BG9" s="77"/>
-      <c r="BH9" s="68"/>
-      <c r="BI9" s="62" t="str">
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="54"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="53" t="str">
         <f t="shared" si="5"/>
         <v>張　卓群</v>
       </c>
-      <c r="BJ9" s="10">
+      <c r="BJ9" s="6">
         <v>45075</v>
       </c>
-      <c r="BK9" s="10">
+      <c r="BK9" s="6">
         <f t="shared" si="6"/>
         <v>45075</v>
       </c>
-      <c r="BL9" s="10"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="28"/>
-      <c r="BO9" s="26" t="s">
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BP9" s="10">
+      <c r="BP9" s="6">
         <v>45075</v>
       </c>
-      <c r="BQ9" s="10">
+      <c r="BQ9" s="6">
         <f t="shared" si="7"/>
         <v>45075</v>
       </c>
-      <c r="BR9" s="10"/>
-      <c r="BS9" s="10"/>
-      <c r="BT9" s="28"/>
-      <c r="BU9" s="41"/>
-      <c r="BV9" s="41"/>
-      <c r="BW9" s="57"/>
-      <c r="BX9" s="17"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20"/>
-      <c r="CA9" s="44"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="46"/>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20"/>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="51"/>
-      <c r="CK9" s="57"/>
-      <c r="CL9" s="55"/>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
-      <c r="CP9" s="20"/>
-      <c r="CQ9" s="23"/>
-      <c r="CR9" s="46"/>
-      <c r="CS9" s="44"/>
-      <c r="CT9" s="20"/>
-      <c r="CU9" s="20"/>
-      <c r="CV9" s="20"/>
-      <c r="CW9" s="23"/>
-      <c r="CX9" s="23"/>
-      <c r="CY9" s="23"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="7"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="44"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="26"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="23"/>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29"/>
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="41"/>
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="29"/>
+      <c r="CQ9" s="32"/>
+      <c r="CR9" s="23"/>
+      <c r="CS9" s="26"/>
+      <c r="CT9" s="29"/>
+      <c r="CU9" s="29"/>
+      <c r="CV9" s="29"/>
+      <c r="CW9" s="32"/>
+      <c r="CX9" s="32"/>
+      <c r="CY9" s="32"/>
     </row>
-    <row r="10" spans="2:105" ht="44.25" customHeight="1">
+    <row r="10" spans="2:103" ht="20" customHeight="1">
       <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="6" ph="1">
+      <c r="F10" s="6">
         <v>45047</v>
       </c>
       <c r="G10" s="6">
@@ -2325,10 +3085,10 @@
       <c r="I10" s="6">
         <v>45048</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="51" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="6">
@@ -2340,11 +3100,11 @@
       <c r="N10" s="6">
         <v>45048</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="5" t="s">
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="48" t="s">
         <v>44</v>
       </c>
       <c r="T10" s="6">
@@ -2355,8 +3115,8 @@
       </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="5" t="s">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="51" t="s">
         <v>44</v>
       </c>
       <c r="Z10" s="6">
@@ -2367,10 +3127,10 @@
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="5" t="s">
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="48" t="s">
         <v>43</v>
       </c>
       <c r="AH10" s="6">
@@ -2381,48 +3141,48 @@
       </c>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="5" t="s">
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AN10" s="9">
         <v>45070</v>
       </c>
-      <c r="AO10" s="6">
+      <c r="AO10" s="9">
         <v>45070</v>
       </c>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="67" t="s">
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AV10" s="74">
+      <c r="AV10" s="6">
         <v>45071</v>
       </c>
-      <c r="AW10" s="74">
+      <c r="AW10" s="6">
         <v>45071</v>
       </c>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="78"/>
-      <c r="BA10" s="67" t="s">
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="BB10" s="74">
+      <c r="BB10" s="6">
         <v>45072</v>
       </c>
-      <c r="BC10" s="74">
+      <c r="BC10" s="6">
         <v>45072</v>
       </c>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="80"/>
-      <c r="BH10" s="68"/>
-      <c r="BI10" s="63" t="s">
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="54"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="53" t="s">
         <v>44</v>
       </c>
       <c r="BJ10" s="6">
@@ -2433,62 +3193,62 @@
       </c>
       <c r="BL10" s="6"/>
       <c r="BM10" s="6"/>
-      <c r="BN10" s="32"/>
-      <c r="BO10" s="5" t="s">
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="BP10" s="35">
+      <c r="BP10" s="6">
         <v>45075</v>
       </c>
-      <c r="BQ10" s="35">
+      <c r="BQ10" s="6">
         <v>45075</v>
       </c>
-      <c r="BR10" s="35"/>
-      <c r="BS10" s="35"/>
-      <c r="BT10" s="34"/>
-      <c r="BU10" s="42"/>
-      <c r="BV10" s="42"/>
-      <c r="BW10" s="57"/>
-      <c r="BX10" s="17"/>
-      <c r="BY10" s="20"/>
-      <c r="BZ10" s="20"/>
-      <c r="CA10" s="44"/>
-      <c r="CB10" s="20"/>
-      <c r="CC10" s="23"/>
-      <c r="CD10" s="46"/>
-      <c r="CE10" s="20"/>
-      <c r="CF10" s="20"/>
-      <c r="CG10" s="20"/>
-      <c r="CH10" s="20"/>
-      <c r="CI10" s="23"/>
-      <c r="CJ10" s="51"/>
-      <c r="CK10" s="57"/>
-      <c r="CL10" s="55"/>
-      <c r="CM10" s="20"/>
-      <c r="CN10" s="20"/>
-      <c r="CO10" s="20"/>
-      <c r="CP10" s="20"/>
-      <c r="CQ10" s="23"/>
-      <c r="CR10" s="46"/>
-      <c r="CS10" s="44"/>
-      <c r="CT10" s="20"/>
-      <c r="CU10" s="20"/>
-      <c r="CV10" s="20"/>
-      <c r="CW10" s="23"/>
-      <c r="CX10" s="23"/>
-      <c r="CY10" s="23"/>
+      <c r="BR10" s="6"/>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="7"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="44"/>
+      <c r="BY10" s="29"/>
+      <c r="BZ10" s="29"/>
+      <c r="CA10" s="26"/>
+      <c r="CB10" s="29"/>
+      <c r="CC10" s="32"/>
+      <c r="CD10" s="23"/>
+      <c r="CE10" s="29"/>
+      <c r="CF10" s="29"/>
+      <c r="CG10" s="29"/>
+      <c r="CH10" s="29"/>
+      <c r="CI10" s="32"/>
+      <c r="CJ10" s="38"/>
+      <c r="CK10" s="14"/>
+      <c r="CL10" s="41"/>
+      <c r="CM10" s="29"/>
+      <c r="CN10" s="29"/>
+      <c r="CO10" s="29"/>
+      <c r="CP10" s="29"/>
+      <c r="CQ10" s="32"/>
+      <c r="CR10" s="23"/>
+      <c r="CS10" s="26"/>
+      <c r="CT10" s="29"/>
+      <c r="CU10" s="29"/>
+      <c r="CV10" s="29"/>
+      <c r="CW10" s="32"/>
+      <c r="CX10" s="32"/>
+      <c r="CY10" s="32"/>
     </row>
-    <row r="11" spans="2:105" ht="48.75" customHeight="1">
+    <row r="11" spans="2:103" ht="20" customHeight="1">
       <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="6">
@@ -2503,10 +3263,10 @@
       <c r="I11" s="6">
         <v>45048</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="51" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="6">
@@ -2518,11 +3278,11 @@
       <c r="N11" s="6">
         <v>45048</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="5" t="s">
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="48" t="s">
         <v>43</v>
       </c>
       <c r="T11" s="6">
@@ -2533,8 +3293,8 @@
       </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="5" t="s">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="51" t="s">
         <v>43</v>
       </c>
       <c r="Z11" s="6">
@@ -2545,10 +3305,10 @@
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="5" t="s">
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="48" t="s">
         <v>44</v>
       </c>
       <c r="AH11" s="6">
@@ -2559,48 +3319,48 @@
       </c>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="5" t="s">
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AN11" s="9">
         <v>45070</v>
       </c>
-      <c r="AO11" s="6">
+      <c r="AO11" s="9">
         <v>45070</v>
       </c>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="67" t="s">
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AV11" s="74">
+      <c r="AV11" s="6">
         <v>45071</v>
       </c>
-      <c r="AW11" s="74">
+      <c r="AW11" s="6">
         <v>45071</v>
       </c>
-      <c r="AX11" s="74"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="78"/>
-      <c r="BA11" s="67" t="s">
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="BB11" s="74">
+      <c r="BB11" s="6">
         <v>45072</v>
       </c>
-      <c r="BC11" s="74">
+      <c r="BC11" s="6">
         <v>45072</v>
       </c>
-      <c r="BD11" s="74"/>
-      <c r="BE11" s="74"/>
-      <c r="BF11" s="79"/>
-      <c r="BG11" s="80"/>
-      <c r="BH11" s="68"/>
-      <c r="BI11" s="63" t="s">
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="54"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="53" t="s">
         <v>43</v>
       </c>
       <c r="BJ11" s="6">
@@ -2611,138 +3371,53 @@
       </c>
       <c r="BL11" s="6"/>
       <c r="BM11" s="6"/>
-      <c r="BN11" s="32"/>
-      <c r="BO11" s="5" t="s">
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="BP11" s="35">
+      <c r="BP11" s="6">
         <v>45075</v>
       </c>
-      <c r="BQ11" s="35">
+      <c r="BQ11" s="6">
         <v>45075</v>
       </c>
-      <c r="BR11" s="35"/>
-      <c r="BS11" s="35"/>
-      <c r="BT11" s="34"/>
-      <c r="BU11" s="42"/>
-      <c r="BV11" s="42"/>
-      <c r="BW11" s="57"/>
-      <c r="BX11" s="18"/>
-      <c r="BY11" s="21"/>
-      <c r="BZ11" s="21"/>
-      <c r="CA11" s="45"/>
-      <c r="CB11" s="21"/>
-      <c r="CC11" s="24"/>
-      <c r="CD11" s="47"/>
-      <c r="CE11" s="21"/>
-      <c r="CF11" s="21"/>
-      <c r="CG11" s="21"/>
-      <c r="CH11" s="21"/>
-      <c r="CI11" s="24"/>
-      <c r="CJ11" s="52"/>
-      <c r="CK11" s="57"/>
-      <c r="CL11" s="56"/>
-      <c r="CM11" s="21"/>
-      <c r="CN11" s="21"/>
-      <c r="CO11" s="21"/>
-      <c r="CP11" s="21"/>
-      <c r="CQ11" s="24"/>
-      <c r="CR11" s="47"/>
-      <c r="CS11" s="45"/>
-      <c r="CT11" s="21"/>
-      <c r="CU11" s="21"/>
-      <c r="CV11" s="21"/>
-      <c r="CW11" s="24"/>
-      <c r="CX11" s="24"/>
-      <c r="CY11" s="24"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="7"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="14"/>
+      <c r="BX11" s="45"/>
+      <c r="BY11" s="30"/>
+      <c r="BZ11" s="30"/>
+      <c r="CA11" s="27"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="33"/>
+      <c r="CD11" s="24"/>
+      <c r="CE11" s="30"/>
+      <c r="CF11" s="30"/>
+      <c r="CG11" s="30"/>
+      <c r="CH11" s="30"/>
+      <c r="CI11" s="33"/>
+      <c r="CJ11" s="39"/>
+      <c r="CK11" s="14"/>
+      <c r="CL11" s="42"/>
+      <c r="CM11" s="30"/>
+      <c r="CN11" s="30"/>
+      <c r="CO11" s="30"/>
+      <c r="CP11" s="30"/>
+      <c r="CQ11" s="33"/>
+      <c r="CR11" s="24"/>
+      <c r="CS11" s="27"/>
+      <c r="CT11" s="30"/>
+      <c r="CU11" s="30"/>
+      <c r="CV11" s="30"/>
+      <c r="CW11" s="33"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2767,81 +3442,166 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="E7:J9">
-    <cfRule type="expression" dxfId="14" priority="4">
+  <conditionalFormatting sqref="E7:J11">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>$I7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K9">
-    <cfRule type="expression" dxfId="13" priority="73">
+  <conditionalFormatting sqref="K7:Q7">
+    <cfRule type="expression" dxfId="31" priority="46">
       <formula>$O7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:M9">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>$I7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:Q9">
-    <cfRule type="expression" dxfId="11" priority="38">
-      <formula>$O7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7:W9">
-    <cfRule type="expression" dxfId="10" priority="35">
+  <conditionalFormatting sqref="S7:X7">
+    <cfRule type="expression" dxfId="30" priority="43">
       <formula>$W7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X7:X9">
-    <cfRule type="expression" dxfId="9" priority="34">
-      <formula>$O7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:Y9 AB7:AE9">
-    <cfRule type="expression" dxfId="8" priority="69">
+  <conditionalFormatting sqref="Y7:AE7">
+    <cfRule type="expression" dxfId="29" priority="77">
       <formula>$AC7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA9">
-    <cfRule type="expression" dxfId="7" priority="36">
-      <formula>$W7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7:AK9">
-    <cfRule type="expression" dxfId="6" priority="30">
+  <conditionalFormatting sqref="AG7:AL7">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL7:AL9">
-    <cfRule type="expression" dxfId="5" priority="28">
-      <formula>$O7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AM7:AS9">
-    <cfRule type="expression" dxfId="4" priority="63">
+    <cfRule type="expression" dxfId="27" priority="71">
       <formula>$AQ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:AZ9">
-    <cfRule type="expression" dxfId="3" priority="58">
+  <conditionalFormatting sqref="AU7:AZ11">
+    <cfRule type="expression" dxfId="1" priority="66">
       <formula>$AY7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA7:BG9">
-    <cfRule type="expression" dxfId="2" priority="57">
+  <conditionalFormatting sqref="BA7:BG11">
+    <cfRule type="expression" dxfId="0" priority="65">
       <formula>$BE7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI7:BN9">
-    <cfRule type="expression" dxfId="1" priority="52">
+  <conditionalFormatting sqref="BI7:BN11">
+    <cfRule type="expression" dxfId="26" priority="60">
       <formula>$BM7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO7:BV9">
-    <cfRule type="expression" dxfId="0" priority="51">
+  <conditionalFormatting sqref="BO7:BV11">
+    <cfRule type="expression" dxfId="25" priority="59">
       <formula>$BS7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:Q11">
+    <cfRule type="expression" dxfId="24" priority="5">
+      <formula>$O8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:X11">
+    <cfRule type="expression" dxfId="23" priority="4">
+      <formula>$W8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8:AE11">
+    <cfRule type="expression" dxfId="22" priority="3">
+      <formula>$AC8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10:AS11">
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>$AQ10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8:AL11">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$AK8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2857,7 +3617,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202305\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51933660-0E53-4E80-AD37-490665585A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5857A9C-8D13-4DEB-AED2-CD482F0AFF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2550" yWindow="-16297" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -518,14 +518,98 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,42 +620,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,54 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -644,861 +644,7 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1846,7 +992,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1890,382 +1036,382 @@
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="22.9">
+    <row r="3" spans="2:103" ht="24">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:103" s="55" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="S4" s="20" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AG4" s="20" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="20" t="s">
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="36" t="s">
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="20"/>
-      <c r="BX4" s="20" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="20"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="20" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
-      <c r="CI4" s="20"/>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="58"/>
-      <c r="CL4" s="36" t="s">
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="30"/>
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="20"/>
-      <c r="CN4" s="20"/>
-      <c r="CO4" s="20"/>
-      <c r="CP4" s="20"/>
-      <c r="CQ4" s="20"/>
-      <c r="CR4" s="20" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="20"/>
-      <c r="CT4" s="20"/>
-      <c r="CU4" s="20"/>
-      <c r="CV4" s="20"/>
-      <c r="CW4" s="20"/>
-      <c r="CX4" s="20"/>
-      <c r="CY4" s="20"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="19" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="21"/>
-      <c r="X5" s="19" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="19" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="19" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="20" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="19" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="20" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="21" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="19" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="34" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="20" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="21" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="19" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="20" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="21" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="19" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="19" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="36" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="21" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="21" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="19" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="20" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="21" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="21"/>
-      <c r="BR5" s="21" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="21"/>
-      <c r="BT5" s="19" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="19" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="19" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="20" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="21" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="21"/>
-      <c r="CA5" s="21" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="19" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="20" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="21" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="21"/>
-      <c r="CG5" s="21" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="21"/>
-      <c r="CI5" s="19" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="34" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="36" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="21" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="21"/>
-      <c r="CO5" s="21" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="21"/>
-      <c r="CQ5" s="19" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="20" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="21" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="21"/>
-      <c r="CU5" s="21" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="21"/>
-      <c r="CW5" s="19" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="19" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="19" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2278,8 +1424,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2292,9 +1438,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2307,8 +1453,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2321,9 +1467,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AG6" s="20"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2336,8 +1482,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2350,10 +1496,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="35"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="20"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2366,8 +1512,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="20"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2380,10 +1526,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="20"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="36"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +1542,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="20"/>
-      <c r="BO6" s="20"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2410,10 +1556,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="20"/>
-      <c r="BU6" s="20"/>
-      <c r="BV6" s="20"/>
-      <c r="BX6" s="20"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2426,8 +1572,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="20"/>
-      <c r="CD6" s="20"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2440,10 +1586,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="20"/>
-      <c r="CJ6" s="35"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="36"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2456,8 +1602,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="20"/>
-      <c r="CR6" s="20"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2470,21 +1616,21 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="20"/>
-      <c r="CX6" s="20"/>
-      <c r="CY6" s="20"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
-    <row r="7" spans="2:103" ht="20" customHeight="1">
+    <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="6">
@@ -2502,7 +1648,7 @@
       <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="6">
@@ -2517,7 +1663,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="12"/>
-      <c r="S7" s="48" t="s">
+      <c r="S7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="T7" s="6">
@@ -2529,7 +1675,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="51" t="s">
+      <c r="Y7" s="23" t="s">
         <v>45</v>
       </c>
       <c r="Z7" s="6">
@@ -2543,7 +1689,7 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="12"/>
-      <c r="AG7" s="48" t="s">
+      <c r="AG7" s="20" t="s">
         <v>48</v>
       </c>
       <c r="AH7" s="6">
@@ -2555,7 +1701,7 @@
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
       <c r="AL7" s="7"/>
-      <c r="AM7" s="51" t="s">
+      <c r="AM7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="AN7" s="6">
@@ -2570,7 +1716,7 @@
       <c r="AR7" s="7"/>
       <c r="AS7" s="15"/>
       <c r="AT7" s="17"/>
-      <c r="AU7" s="48" t="s">
+      <c r="AU7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AV7" s="6">
@@ -2584,7 +1730,7 @@
       <c r="AX7" s="6"/>
       <c r="AY7" s="6"/>
       <c r="AZ7" s="7"/>
-      <c r="BA7" s="51" t="s">
+      <c r="BA7" s="23" t="s">
         <v>46</v>
       </c>
       <c r="BB7" s="6">
@@ -2596,10 +1742,10 @@
       </c>
       <c r="BD7" s="6"/>
       <c r="BE7" s="6"/>
-      <c r="BF7" s="54"/>
+      <c r="BF7" s="26"/>
       <c r="BG7" s="13"/>
       <c r="BH7" s="18"/>
-      <c r="BI7" s="53" t="str">
+      <c r="BI7" s="25" t="str">
         <f>AU7</f>
         <v>張　秋実</v>
       </c>
@@ -2613,7 +1759,7 @@
       <c r="BL7" s="6"/>
       <c r="BM7" s="6"/>
       <c r="BN7" s="7"/>
-      <c r="BO7" s="51" t="s">
+      <c r="BO7" s="23" t="s">
         <v>46</v>
       </c>
       <c r="BP7" s="6">
@@ -2630,78 +1776,78 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="43" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="28">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="28">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="25"/>
-      <c r="CB7" s="28">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="31"/>
-      <c r="CD7" s="22" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="28">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="28">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="28"/>
-      <c r="CH7" s="28"/>
-      <c r="CI7" s="31"/>
-      <c r="CJ7" s="37"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="40" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="28">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="28">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="28"/>
-      <c r="CP7" s="28"/>
-      <c r="CQ7" s="31"/>
-      <c r="CR7" s="22" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="25">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="28">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="28"/>
-      <c r="CV7" s="28"/>
-      <c r="CW7" s="31"/>
-      <c r="CX7" s="31"/>
-      <c r="CY7" s="31"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
-    <row r="8" spans="2:103" ht="20" customHeight="1">
+    <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="6">
@@ -2719,7 +1865,7 @@
       <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="23" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="6">
@@ -2731,10 +1877,16 @@
       <c r="N8" s="6">
         <v>45048</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="12"/>
-      <c r="S8" s="48" t="s">
+      <c r="O8" s="6">
+        <v>45048</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>6</v>
+      </c>
+      <c r="S8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="T8" s="6">
@@ -2746,7 +1898,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="51" t="s">
+      <c r="Y8" s="23" t="s">
         <v>36</v>
       </c>
       <c r="Z8" s="6">
@@ -2760,7 +1912,7 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="12"/>
-      <c r="AG8" s="48" t="s">
+      <c r="AG8" s="20" t="s">
         <v>34</v>
       </c>
       <c r="AH8" s="6">
@@ -2772,7 +1924,7 @@
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
       <c r="AL8" s="7"/>
-      <c r="AM8" s="51" t="s">
+      <c r="AM8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="AN8" s="6">
@@ -2787,7 +1939,7 @@
       <c r="AR8" s="7"/>
       <c r="AS8" s="15"/>
       <c r="AT8" s="17"/>
-      <c r="AU8" s="48" t="s">
+      <c r="AU8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="AV8" s="6">
@@ -2801,7 +1953,7 @@
       <c r="AX8" s="6"/>
       <c r="AY8" s="6"/>
       <c r="AZ8" s="7"/>
-      <c r="BA8" s="51" t="s">
+      <c r="BA8" s="23" t="s">
         <v>36</v>
       </c>
       <c r="BB8" s="6">
@@ -2813,10 +1965,10 @@
       </c>
       <c r="BD8" s="6"/>
       <c r="BE8" s="6"/>
-      <c r="BF8" s="54"/>
+      <c r="BF8" s="26"/>
       <c r="BG8" s="13"/>
       <c r="BH8" s="18"/>
-      <c r="BI8" s="53" t="str">
+      <c r="BI8" s="25" t="str">
         <f t="shared" ref="BI8:BI9" si="5">AU8</f>
         <v>馬　広超、趙　博</v>
       </c>
@@ -2830,7 +1982,7 @@
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
       <c r="BN8" s="7"/>
-      <c r="BO8" s="51" t="s">
+      <c r="BO8" s="23" t="s">
         <v>36</v>
       </c>
       <c r="BP8" s="6">
@@ -2846,46 +1998,46 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="44"/>
-      <c r="BY8" s="29"/>
-      <c r="BZ8" s="29"/>
-      <c r="CA8" s="26"/>
-      <c r="CB8" s="29"/>
-      <c r="CC8" s="32"/>
-      <c r="CD8" s="23"/>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="29"/>
-      <c r="CG8" s="29"/>
-      <c r="CH8" s="29"/>
-      <c r="CI8" s="32"/>
-      <c r="CJ8" s="38"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="41"/>
-      <c r="CM8" s="29"/>
-      <c r="CN8" s="29"/>
-      <c r="CO8" s="29"/>
-      <c r="CP8" s="29"/>
-      <c r="CQ8" s="32"/>
-      <c r="CR8" s="23"/>
-      <c r="CS8" s="26"/>
-      <c r="CT8" s="29"/>
-      <c r="CU8" s="29"/>
-      <c r="CV8" s="29"/>
-      <c r="CW8" s="32"/>
-      <c r="CX8" s="32"/>
-      <c r="CY8" s="32"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
-    <row r="9" spans="2:103" ht="20" customHeight="1">
+    <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="6">
@@ -2903,7 +2055,7 @@
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="23" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="6">
@@ -2919,7 +2071,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="14"/>
-      <c r="S9" s="48" t="s">
+      <c r="S9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="T9" s="6">
@@ -2931,7 +2083,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="51" t="s">
+      <c r="Y9" s="23" t="s">
         <v>34</v>
       </c>
       <c r="Z9" s="6">
@@ -2946,7 +2098,7 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="14"/>
-      <c r="AG9" s="48" t="s">
+      <c r="AG9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AH9" s="6">
@@ -2958,7 +2110,7 @@
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="7"/>
-      <c r="AM9" s="52" t="s">
+      <c r="AM9" s="24" t="s">
         <v>46</v>
       </c>
       <c r="AN9" s="9">
@@ -2973,7 +2125,7 @@
       <c r="AR9" s="11"/>
       <c r="AS9" s="16"/>
       <c r="AT9" s="17"/>
-      <c r="AU9" s="48" t="s">
+      <c r="AU9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="AV9" s="6">
@@ -2986,7 +2138,7 @@
       <c r="AX9" s="6"/>
       <c r="AY9" s="6"/>
       <c r="AZ9" s="7"/>
-      <c r="BA9" s="51" t="s">
+      <c r="BA9" s="23" t="s">
         <v>34</v>
       </c>
       <c r="BB9" s="6">
@@ -2998,10 +2150,10 @@
       </c>
       <c r="BD9" s="6"/>
       <c r="BE9" s="6"/>
-      <c r="BF9" s="54"/>
+      <c r="BF9" s="26"/>
       <c r="BG9" s="13"/>
       <c r="BH9" s="18"/>
-      <c r="BI9" s="53" t="str">
+      <c r="BI9" s="25" t="str">
         <f t="shared" si="5"/>
         <v>張　卓群</v>
       </c>
@@ -3015,7 +2167,7 @@
       <c r="BL9" s="6"/>
       <c r="BM9" s="6"/>
       <c r="BN9" s="7"/>
-      <c r="BO9" s="51" t="s">
+      <c r="BO9" s="23" t="s">
         <v>34</v>
       </c>
       <c r="BP9" s="6">
@@ -3031,46 +2183,46 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="44"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29"/>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="23"/>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29"/>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="41"/>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="29"/>
-      <c r="CP9" s="29"/>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="23"/>
-      <c r="CS9" s="26"/>
-      <c r="CT9" s="29"/>
-      <c r="CU9" s="29"/>
-      <c r="CV9" s="29"/>
-      <c r="CW9" s="32"/>
-      <c r="CX9" s="32"/>
-      <c r="CY9" s="32"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
-    <row r="10" spans="2:103" ht="20" customHeight="1">
+    <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="6">
@@ -3088,7 +2240,7 @@
       <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="23" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="6">
@@ -3104,7 +2256,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="48" t="s">
+      <c r="S10" s="20" t="s">
         <v>44</v>
       </c>
       <c r="T10" s="6">
@@ -3116,7 +2268,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="51" t="s">
+      <c r="Y10" s="23" t="s">
         <v>44</v>
       </c>
       <c r="Z10" s="6">
@@ -3130,7 +2282,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="14"/>
-      <c r="AG10" s="48" t="s">
+      <c r="AG10" s="20" t="s">
         <v>43</v>
       </c>
       <c r="AH10" s="6">
@@ -3142,7 +2294,7 @@
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="7"/>
-      <c r="AM10" s="52" t="s">
+      <c r="AM10" s="24" t="s">
         <v>43</v>
       </c>
       <c r="AN10" s="9">
@@ -3156,7 +2308,7 @@
       <c r="AR10" s="11"/>
       <c r="AS10" s="16"/>
       <c r="AT10" s="17"/>
-      <c r="AU10" s="48" t="s">
+      <c r="AU10" s="20" t="s">
         <v>44</v>
       </c>
       <c r="AV10" s="6">
@@ -3168,7 +2320,7 @@
       <c r="AX10" s="6"/>
       <c r="AY10" s="6"/>
       <c r="AZ10" s="7"/>
-      <c r="BA10" s="51" t="s">
+      <c r="BA10" s="23" t="s">
         <v>44</v>
       </c>
       <c r="BB10" s="6">
@@ -3179,10 +2331,10 @@
       </c>
       <c r="BD10" s="6"/>
       <c r="BE10" s="6"/>
-      <c r="BF10" s="54"/>
+      <c r="BF10" s="26"/>
       <c r="BG10" s="13"/>
       <c r="BH10" s="18"/>
-      <c r="BI10" s="53" t="s">
+      <c r="BI10" s="25" t="s">
         <v>44</v>
       </c>
       <c r="BJ10" s="6">
@@ -3194,7 +2346,7 @@
       <c r="BL10" s="6"/>
       <c r="BM10" s="6"/>
       <c r="BN10" s="7"/>
-      <c r="BO10" s="51" t="s">
+      <c r="BO10" s="23" t="s">
         <v>44</v>
       </c>
       <c r="BP10" s="6">
@@ -3209,46 +2361,46 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="44"/>
-      <c r="BY10" s="29"/>
-      <c r="BZ10" s="29"/>
-      <c r="CA10" s="26"/>
-      <c r="CB10" s="29"/>
-      <c r="CC10" s="32"/>
-      <c r="CD10" s="23"/>
-      <c r="CE10" s="29"/>
-      <c r="CF10" s="29"/>
-      <c r="CG10" s="29"/>
-      <c r="CH10" s="29"/>
-      <c r="CI10" s="32"/>
-      <c r="CJ10" s="38"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="41"/>
-      <c r="CM10" s="29"/>
-      <c r="CN10" s="29"/>
-      <c r="CO10" s="29"/>
-      <c r="CP10" s="29"/>
-      <c r="CQ10" s="32"/>
-      <c r="CR10" s="23"/>
-      <c r="CS10" s="26"/>
-      <c r="CT10" s="29"/>
-      <c r="CU10" s="29"/>
-      <c r="CV10" s="29"/>
-      <c r="CW10" s="32"/>
-      <c r="CX10" s="32"/>
-      <c r="CY10" s="32"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
-    <row r="11" spans="2:103" ht="20" customHeight="1">
+    <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="6">
@@ -3266,7 +2418,7 @@
       <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="51" t="s">
+      <c r="K11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="6">
@@ -3282,7 +2434,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="48" t="s">
+      <c r="S11" s="20" t="s">
         <v>43</v>
       </c>
       <c r="T11" s="6">
@@ -3294,7 +2446,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="51" t="s">
+      <c r="Y11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="Z11" s="6">
@@ -3308,7 +2460,7 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="14"/>
-      <c r="AG11" s="48" t="s">
+      <c r="AG11" s="20" t="s">
         <v>44</v>
       </c>
       <c r="AH11" s="6">
@@ -3320,7 +2472,7 @@
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
       <c r="AL11" s="7"/>
-      <c r="AM11" s="52" t="s">
+      <c r="AM11" s="24" t="s">
         <v>44</v>
       </c>
       <c r="AN11" s="9">
@@ -3334,7 +2486,7 @@
       <c r="AR11" s="11"/>
       <c r="AS11" s="16"/>
       <c r="AT11" s="17"/>
-      <c r="AU11" s="48" t="s">
+      <c r="AU11" s="20" t="s">
         <v>43</v>
       </c>
       <c r="AV11" s="6">
@@ -3346,7 +2498,7 @@
       <c r="AX11" s="6"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="7"/>
-      <c r="BA11" s="51" t="s">
+      <c r="BA11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="BB11" s="6">
@@ -3357,10 +2509,10 @@
       </c>
       <c r="BD11" s="6"/>
       <c r="BE11" s="6"/>
-      <c r="BF11" s="54"/>
+      <c r="BF11" s="26"/>
       <c r="BG11" s="13"/>
       <c r="BH11" s="18"/>
-      <c r="BI11" s="53" t="s">
+      <c r="BI11" s="25" t="s">
         <v>43</v>
       </c>
       <c r="BJ11" s="6">
@@ -3372,7 +2524,7 @@
       <c r="BL11" s="6"/>
       <c r="BM11" s="6"/>
       <c r="BN11" s="7"/>
-      <c r="BO11" s="51" t="s">
+      <c r="BO11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="BP11" s="6">
@@ -3387,37 +2539,122 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="45"/>
-      <c r="BY11" s="30"/>
-      <c r="BZ11" s="30"/>
-      <c r="CA11" s="27"/>
-      <c r="CB11" s="30"/>
-      <c r="CC11" s="33"/>
-      <c r="CD11" s="24"/>
-      <c r="CE11" s="30"/>
-      <c r="CF11" s="30"/>
-      <c r="CG11" s="30"/>
-      <c r="CH11" s="30"/>
-      <c r="CI11" s="33"/>
-      <c r="CJ11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="42"/>
-      <c r="CM11" s="30"/>
-      <c r="CN11" s="30"/>
-      <c r="CO11" s="30"/>
-      <c r="CP11" s="30"/>
-      <c r="CQ11" s="33"/>
-      <c r="CR11" s="24"/>
-      <c r="CS11" s="27"/>
-      <c r="CT11" s="30"/>
-      <c r="CU11" s="30"/>
-      <c r="CV11" s="30"/>
-      <c r="CW11" s="33"/>
-      <c r="CX11" s="33"/>
-      <c r="CY11" s="33"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -3442,166 +2679,56 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$I7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:Q7">
-    <cfRule type="expression" dxfId="31" priority="46">
+  <conditionalFormatting sqref="K7:Q11">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>$O7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:X7">
-    <cfRule type="expression" dxfId="30" priority="43">
+  <conditionalFormatting sqref="S7:X11">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$W7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AE7">
-    <cfRule type="expression" dxfId="29" priority="77">
+  <conditionalFormatting sqref="Y7:AE11">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$AC7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG7:AL7">
-    <cfRule type="expression" dxfId="28" priority="38">
+  <conditionalFormatting sqref="AG7:AL11">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM7:AS9">
-    <cfRule type="expression" dxfId="27" priority="71">
+  <conditionalFormatting sqref="AM7:AS11">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$AQ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:AZ11">
-    <cfRule type="expression" dxfId="1" priority="66">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>$AY7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA7:BG11">
-    <cfRule type="expression" dxfId="0" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$BE7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI7:BN11">
-    <cfRule type="expression" dxfId="26" priority="60">
+    <cfRule type="expression" dxfId="1" priority="60">
       <formula>$BM7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO7:BV11">
-    <cfRule type="expression" dxfId="25" priority="59">
+    <cfRule type="expression" dxfId="0" priority="59">
       <formula>$BS7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:Q11">
-    <cfRule type="expression" dxfId="24" priority="5">
-      <formula>$O8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:X11">
-    <cfRule type="expression" dxfId="23" priority="4">
-      <formula>$W8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AE11">
-    <cfRule type="expression" dxfId="22" priority="3">
-      <formula>$AC8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10:AS11">
-    <cfRule type="expression" dxfId="21" priority="2">
-      <formula>$AQ10&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AL11">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$AK8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3617,7 +2744,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5857A9C-8D13-4DEB-AED2-CD482F0AFF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -236,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -555,7 +554,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,14 +607,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,68 +634,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
+    <cellStyle name="標準_システム管理" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -985,14 +984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1042,376 +1041,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1423,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1438,9 +1437,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1453,8 +1452,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1467,9 +1466,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1482,8 +1481,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1496,10 +1495,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1512,8 +1511,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1526,10 +1525,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1542,8 +1541,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1556,10 +1555,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1572,8 +1571,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1586,10 +1585,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1602,8 +1601,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1616,9 +1615,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
     <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="5">
@@ -1660,9 +1659,15 @@
       <c r="N7" s="6">
         <v>45048</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="12"/>
+      <c r="O7" s="6">
+        <v>45048</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>2</v>
+      </c>
       <c r="S7" s="20" t="s">
         <v>45</v>
       </c>
@@ -1776,66 +1781,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
     <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5">
@@ -1998,34 +2003,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
     <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
@@ -2183,34 +2188,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
     <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5">
@@ -2361,34 +2366,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
     <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="5">
@@ -2539,122 +2544,37 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2679,6 +2599,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2737,7 +2742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-05/2023-05/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_EEEC9D82DBBD96920ACF6448521F001957EE16DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2159C229-72E7-423F-83BE-401FF8B666EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -235,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -554,14 +544,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,42 +609,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,25 +625,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
-    <cellStyle name="標準_システム管理" xfId="1"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -984,14 +974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:CZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1041,376 +1031,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1423,8 +1413,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1437,9 +1427,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1452,8 +1442,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1466,9 +1456,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1481,8 +1471,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1495,10 +1485,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1511,8 +1501,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1525,10 +1515,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1541,8 +1531,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1555,10 +1545,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1571,8 +1561,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1585,10 +1575,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1601,8 +1591,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1615,9 +1605,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
     <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="5">
@@ -1781,66 +1771,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
     <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5">
@@ -2003,34 +1993,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
     <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
@@ -2188,34 +2178,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
     <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5">
@@ -2257,9 +2247,15 @@
       <c r="N10" s="6">
         <v>45048</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="12"/>
+      <c r="O10" s="6">
+        <v>45048</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>4</v>
+      </c>
       <c r="R10" s="14"/>
       <c r="S10" s="20" t="s">
         <v>44</v>
@@ -2366,34 +2362,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
     <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="5">
@@ -2544,37 +2540,122 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2599,91 +2680,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2742,7 +2738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-05/2023-05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_EEEC9D82DBBD96920ACF6448521F001957EE16DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2159C229-72E7-423F-83BE-401FF8B666EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D28B6D-0106-4FE1-9468-53CC582DBFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -544,7 +557,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,14 +610,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,61 +637,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,7 +994,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1031,376 +1044,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1413,8 +1426,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1427,9 +1440,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1442,8 +1455,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1469,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1471,8 +1484,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1485,10 +1498,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1501,8 +1514,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1515,10 +1528,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1544,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1545,10 +1558,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1561,8 +1574,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1588,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1604,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1605,9 +1618,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
     <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="5">
@@ -1771,66 +1784,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
     <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5">
@@ -1993,34 +2006,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
     <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
@@ -2075,9 +2088,15 @@
       <c r="U9" s="6">
         <v>45055</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="7"/>
+      <c r="V9" s="6">
+        <v>45054</v>
+      </c>
+      <c r="W9" s="6">
+        <v>45055</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
       <c r="Y9" s="23" t="s">
         <v>34</v>
       </c>
@@ -2178,34 +2197,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
     <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5">
@@ -2362,34 +2381,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
     <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="5">
@@ -2540,122 +2559,37 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2680,6 +2614,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-05/2023-05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_EEEC9D82DBBD96920ACF6448521F001957EE16DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2159C229-72E7-423F-83BE-401FF8B666EB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -225,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -544,7 +543,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,14 +596,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,68 +623,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
+    <cellStyle name="標準_システム管理" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -974,14 +973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -990,10 +989,10 @@
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="8" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="13" style="8" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="12" max="17" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="2" style="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1031,376 +1030,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1413,8 +1412,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1427,9 +1426,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1442,8 +1441,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1455,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1471,8 +1470,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1485,10 +1484,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1501,8 +1500,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1515,10 +1514,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1530,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1545,10 +1544,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1561,8 +1560,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1574,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1590,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1605,9 +1604,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
     <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="5">
@@ -1771,66 +1770,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
     <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5">
@@ -1890,9 +1889,15 @@
       <c r="U8" s="6">
         <v>45055</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="7"/>
+      <c r="V8" s="6">
+        <v>45054</v>
+      </c>
+      <c r="W8" s="6">
+        <v>45055</v>
+      </c>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
       <c r="Y8" s="23" t="s">
         <v>36</v>
       </c>
@@ -1993,34 +1998,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
     <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
@@ -2178,34 +2183,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
     <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5">
@@ -2362,34 +2367,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
     <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="5">
@@ -2540,122 +2545,37 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2680,6 +2600,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2738,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD379549-4A45-4F10-8699-D8CFF26A7126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10740"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -224,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -543,14 +544,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,42 +609,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,23 +627,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
-    <cellStyle name="標準_システム管理" xfId="1"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -973,23 +974,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:CZ11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -999,407 +1000,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="24">
+    <row r="3" spans="2:103" ht="23.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
-    <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+    <row r="5" spans="2:103" ht="14">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+    <row r="6" spans="2:103" ht="14">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1412,8 +1413,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1426,9 +1427,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1441,8 +1442,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1455,9 +1456,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1470,8 +1471,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1484,10 +1485,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1500,8 +1501,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1514,10 +1515,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1531,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1544,10 +1545,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1560,8 +1561,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1574,10 +1575,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1590,8 +1591,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1604,11 +1605,11 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
-    <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -1666,9 +1667,15 @@
       <c r="U7" s="6">
         <v>45055</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="7"/>
+      <c r="V7" s="6">
+        <v>45054</v>
+      </c>
+      <c r="W7" s="6">
+        <v>45055</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
       <c r="Y7" s="23" t="s">
         <v>45</v>
       </c>
@@ -1770,68 +1777,68 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
-    <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -1998,36 +2005,36 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
-    <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2067,9 +2074,15 @@
       <c r="N9" s="6">
         <v>45048</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="12"/>
+      <c r="O9" s="6">
+        <v>45048</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>5</v>
+      </c>
       <c r="R9" s="14"/>
       <c r="S9" s="20" t="s">
         <v>34</v>
@@ -2183,36 +2196,36 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
-    <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -2367,36 +2380,36 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
-    <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -2545,37 +2558,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
+    </row>
+    <row r="12" spans="2:103">
+      <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2600,91 +2701,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2743,14 +2759,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -5,18 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD379549-4A45-4F10-8699-D8CFF26A7126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4D41F-6646-4BCA-B2B9-99B8C5EF8236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -544,7 +557,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,86 +610,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -981,16 +994,16 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1000,407 +1013,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="23.5">
+    <row r="3" spans="2:103" ht="24">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
-    <row r="5" spans="2:103" ht="14">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+    <row r="5" spans="2:103" ht="14.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+    <row r="6" spans="2:103" ht="14.25">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1413,8 +1426,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1427,9 +1440,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1442,8 +1455,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1469,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1471,8 +1484,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1485,10 +1498,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1501,8 +1514,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1515,10 +1528,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1544,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1545,10 +1558,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1561,8 +1574,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1588,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1604,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1605,11 +1618,11 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
-    <row r="7" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -1777,68 +1790,68 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
-    <row r="8" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -2005,36 +2018,36 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
-    <row r="9" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2093,9 +2106,15 @@
       <c r="U9" s="6">
         <v>45055</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="7"/>
+      <c r="V9" s="6">
+        <v>45054</v>
+      </c>
+      <c r="W9" s="6">
+        <v>45055</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
       <c r="Y9" s="23" t="s">
         <v>34</v>
       </c>
@@ -2196,36 +2215,36 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
-    <row r="10" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -2380,36 +2399,36 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
-    <row r="11" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -2558,125 +2577,40 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2701,6 +2635,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2766,7 +2785,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4D41F-6646-4BCA-B2B9-99B8C5EF8236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -238,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -557,14 +556,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,42 +621,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,25 +637,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
+    <cellStyle name="標準_システム管理" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -987,14 +986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1044,376 +1043,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1426,8 +1425,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1440,9 +1439,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1454,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1469,9 +1468,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1484,8 +1483,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1498,10 +1497,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1514,8 +1513,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1528,10 +1527,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1544,8 +1543,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1558,10 +1557,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1574,8 +1573,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1588,10 +1587,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1604,8 +1603,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1618,9 +1617,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
     <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="5">
@@ -1790,66 +1789,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
     <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5">
@@ -2018,34 +2017,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
     <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
@@ -2215,34 +2214,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
     <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5">
@@ -2399,34 +2398,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
     <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="5">
@@ -2468,9 +2467,15 @@
       <c r="N11" s="6">
         <v>45048</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="12"/>
+      <c r="O11" s="6">
+        <v>45048</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>4</v>
+      </c>
       <c r="R11" s="14"/>
       <c r="S11" s="20" t="s">
         <v>43</v>
@@ -2481,9 +2486,15 @@
       <c r="U11" s="6">
         <v>45055</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="7"/>
+      <c r="V11" s="6">
+        <v>45054</v>
+      </c>
+      <c r="W11" s="6">
+        <v>45055</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1</v>
+      </c>
       <c r="Y11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2577,40 +2588,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2635,91 +2731,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2778,7 +2789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12877BB7-3C4F-42DC-AFB4-2991F3683EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -237,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -556,7 +555,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,14 +608,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,68 +635,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
-    <cellStyle name="標準_システム管理" xfId="1"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -986,23 +985,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1012,407 +1011,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="24">
+    <row r="3" spans="2:103" ht="23.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
-    <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+    <row r="5" spans="2:103" ht="14">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+    <row r="6" spans="2:103" ht="14">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1425,8 +1424,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1439,9 +1438,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1454,8 +1453,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1468,9 +1467,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1483,8 +1482,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1497,10 +1496,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1513,8 +1512,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1527,10 +1526,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1543,8 +1542,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1557,10 +1556,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1573,8 +1572,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1587,10 +1586,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1603,8 +1602,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1617,11 +1616,11 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
-    <row r="7" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -1789,68 +1788,68 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
-    <row r="8" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -2017,36 +2016,36 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
-    <row r="9" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2214,36 +2213,36 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
-    <row r="10" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -2302,9 +2301,15 @@
       <c r="U10" s="6">
         <v>45055</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="7"/>
+      <c r="V10" s="6">
+        <v>45054</v>
+      </c>
+      <c r="W10" s="6">
+        <v>45055</v>
+      </c>
+      <c r="X10" s="7">
+        <v>1</v>
+      </c>
       <c r="Y10" s="23" t="s">
         <v>44</v>
       </c>
@@ -2398,36 +2403,36 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
-    <row r="11" spans="2:103" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:103" ht="20.149999999999999" customHeight="1">
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -2588,125 +2593,40 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2731,6 +2651,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2789,14 +2794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202305\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12877BB7-3C4F-42DC-AFB4-2991F3683EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F13474-FC09-4D08-912B-B9BB23A6B6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2550" yWindow="-16297" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -555,14 +555,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,42 +620,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,18 +636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,16 +992,16 @@
       <pane xSplit="4" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.8125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.5625" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1011,407 +1011,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.5625" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="1.5625" style="1" customWidth="1" collapsed="1"/>
     <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="1.5625" style="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.5625" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.5625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.5625" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.5625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.5625" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="23.5">
+    <row r="3" spans="2:103" ht="22.9">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
-    <row r="5" spans="2:103" ht="14">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+    <row r="5" spans="2:103" ht="14.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+    <row r="6" spans="2:103" ht="14.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1424,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1438,9 +1438,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1453,8 +1453,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1467,9 +1467,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1496,10 +1496,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1512,8 +1512,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1526,10 +1526,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1542,8 +1542,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1556,10 +1556,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1572,8 +1572,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1586,10 +1586,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1602,8 +1602,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1616,11 +1616,11 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
-    <row r="7" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="2:103" ht="20.2" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -1697,9 +1697,15 @@
         <f>Z7</f>
         <v>45056</v>
       </c>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="7"/>
+      <c r="AB7" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>1</v>
+      </c>
       <c r="AE7" s="12"/>
       <c r="AG7" s="20" t="s">
         <v>48</v>
@@ -1788,68 +1794,68 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
-    <row r="8" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="2:103" ht="20.2" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -1926,9 +1932,15 @@
         <f t="shared" ref="AA8:AA9" si="0">Z8</f>
         <v>45056</v>
       </c>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="7"/>
+      <c r="AB8" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>1</v>
+      </c>
       <c r="AE8" s="12"/>
       <c r="AG8" s="20" t="s">
         <v>34</v>
@@ -2016,36 +2028,36 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
-    <row r="9" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="2:103" ht="20.2" customHeight="1">
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2123,9 +2135,15 @@
         <f t="shared" si="0"/>
         <v>45056</v>
       </c>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="7"/>
+      <c r="AB9" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>1</v>
+      </c>
       <c r="AE9" s="12"/>
       <c r="AF9" s="14"/>
       <c r="AG9" s="20" t="s">
@@ -2213,36 +2231,36 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
-    <row r="10" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="2:103" ht="20.2" customHeight="1">
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -2319,9 +2337,15 @@
       <c r="AA10" s="6">
         <v>45056</v>
       </c>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="7"/>
+      <c r="AB10" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>1</v>
+      </c>
       <c r="AE10" s="12"/>
       <c r="AF10" s="14"/>
       <c r="AG10" s="20" t="s">
@@ -2403,36 +2427,36 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
-    <row r="11" spans="2:103" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="2:103" ht="20.2" customHeight="1">
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -2509,9 +2533,15 @@
       <c r="AA11" s="6">
         <v>45056</v>
       </c>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="7"/>
+      <c r="AB11" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>45056</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>1</v>
+      </c>
       <c r="AE11" s="12"/>
       <c r="AF11" s="14"/>
       <c r="AG11" s="20" t="s">
@@ -2593,40 +2623,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2651,91 +2766,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2801,7 +2831,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202305\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F13474-FC09-4D08-912B-B9BB23A6B6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2550" yWindow="-16297" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2550" yWindow="-16290" windowWidth="28995" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -236,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -555,7 +554,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,14 +607,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,68 +634,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
+    <cellStyle name="標準_システム管理" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -985,23 +984,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.8125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1011,407 +1010,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.5625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="38" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="45" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.5625" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="38" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
     <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.5625" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.5625" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.5625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.5625" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.5625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.5625" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="22.9">
+    <row r="3" spans="2:103" ht="24">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1423,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1438,9 +1437,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1453,8 +1452,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1467,9 +1466,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1482,8 +1481,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1496,10 +1495,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1512,8 +1511,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1526,10 +1525,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1542,8 +1541,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1556,10 +1555,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1572,8 +1571,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1586,10 +1585,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1602,8 +1601,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1616,11 +1615,11 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
-    <row r="7" spans="2:103" ht="20.2" customHeight="1">
+    <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -1794,68 +1793,68 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
-    <row r="8" spans="2:103" ht="20.2" customHeight="1">
+    <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -1941,7 +1940,9 @@
       <c r="AD8" s="7">
         <v>1</v>
       </c>
-      <c r="AE8" s="12"/>
+      <c r="AE8" s="12">
+        <v>11</v>
+      </c>
       <c r="AG8" s="20" t="s">
         <v>34</v>
       </c>
@@ -2028,36 +2029,36 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
-    <row r="9" spans="2:103" ht="20.2" customHeight="1">
+    <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2231,36 +2232,36 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
-    <row r="10" spans="2:103" ht="20.2" customHeight="1">
+    <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -2427,36 +2428,36 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
-    <row r="11" spans="2:103" ht="20.2" customHeight="1">
+    <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -2623,125 +2624,40 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2766,6 +2682,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2824,14 +2825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBDD037-EEC0-44FB-A9FB-D420C4DEF5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2550" yWindow="-16290" windowWidth="28995" windowHeight="15675"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +25,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -235,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -554,14 +557,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,42 +622,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,25 +638,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
-    <cellStyle name="標準_システム管理" xfId="1"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -984,14 +987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
+      <selection pane="bottomRight" activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1041,376 +1044,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1423,8 +1426,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1437,9 +1440,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1452,8 +1455,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1466,9 +1469,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1481,8 +1484,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1495,10 +1498,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1511,8 +1514,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1525,10 +1528,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1541,8 +1544,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1555,10 +1558,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1571,8 +1574,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1585,10 +1588,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1601,8 +1604,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1615,9 +1618,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1793,66 +1796,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2029,34 +2032,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2145,7 +2148,9 @@
       <c r="AD9" s="7">
         <v>1</v>
       </c>
-      <c r="AE9" s="12"/>
+      <c r="AE9" s="12">
+        <v>20</v>
+      </c>
       <c r="AF9" s="14"/>
       <c r="AG9" s="20" t="s">
         <v>45</v>
@@ -2232,34 +2237,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2428,34 +2433,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2624,40 +2629,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2682,91 +2772,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2825,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -5,31 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBDD037-EEC0-44FB-A9FB-D420C4DEF5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B13DAF4-624F-4F68-A613-2CF352C6B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -557,7 +544,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,86 +597,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -994,16 +981,16 @@
       <pane xSplit="4" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH20" sqref="AH20"/>
+      <selection pane="bottomRight" activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1013,407 +1000,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="1.58203125" style="1" customWidth="1"/>
     <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="24">
+    <row r="3" spans="2:103" ht="23.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
-    <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+    <row r="5" spans="2:103" ht="14">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+    <row r="6" spans="2:103" ht="14">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1426,8 +1413,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1440,9 +1427,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1442,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1469,9 +1456,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1484,8 +1471,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1498,10 +1485,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1514,8 +1501,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1528,10 +1515,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1544,8 +1531,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1558,10 +1545,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1574,8 +1561,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1588,10 +1575,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1604,8 +1591,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1618,9 +1605,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1708,7 +1695,9 @@
       <c r="AD7" s="7">
         <v>1</v>
       </c>
-      <c r="AE7" s="12"/>
+      <c r="AE7" s="12">
+        <v>8</v>
+      </c>
       <c r="AG7" s="20" t="s">
         <v>48</v>
       </c>
@@ -1796,66 +1785,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2032,34 +2021,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2237,34 +2226,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2433,34 +2422,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2629,125 +2618,40 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2772,6 +2676,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2837,7 +2826,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-05/2023-05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B13DAF4-624F-4F68-A613-2CF352C6B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2B13DAF4-624F-4F68-A613-2CF352C6B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F72890C-D9A5-40F5-A204-3889E300266E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -544,14 +544,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,42 +609,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,23 +627,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -978,19 +978,19 @@
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI9" sqref="AI9"/>
+      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1000,407 +1000,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.58203125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
     <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="23.5">
+    <row r="3" spans="2:103" ht="24">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
-    <row r="5" spans="2:103" ht="14">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+    <row r="5" spans="2:103" ht="14.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+    <row r="6" spans="2:103" ht="14.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1413,8 +1413,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1427,9 +1427,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1442,8 +1442,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1456,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1471,8 +1471,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1485,10 +1485,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1501,8 +1501,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1515,10 +1515,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1531,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1545,10 +1545,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1561,8 +1561,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1575,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1591,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1605,9 +1605,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1785,66 +1785,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2021,34 +2021,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2226,34 +2226,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2341,7 +2341,9 @@
       <c r="AD10" s="7">
         <v>1</v>
       </c>
-      <c r="AE10" s="12"/>
+      <c r="AE10" s="12">
+        <v>8</v>
+      </c>
       <c r="AF10" s="14"/>
       <c r="AG10" s="20" t="s">
         <v>43</v>
@@ -2422,34 +2424,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2618,40 +2620,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2676,91 +2763,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2826,7 +2828,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -5,18 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-05/2023-05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2B13DAF4-624F-4F68-A613-2CF352C6B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F72890C-D9A5-40F5-A204-3889E300266E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA3D71-5B54-4D18-B02C-CD2E462E6041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -544,7 +557,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,14 +610,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,61 +637,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,7 +994,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
+      <selection pane="bottomRight" activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1031,376 +1044,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1413,8 +1426,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1427,9 +1440,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1442,8 +1455,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1469,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1471,8 +1484,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1485,10 +1498,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1501,8 +1514,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1515,10 +1528,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1544,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1545,10 +1558,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1561,8 +1574,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1588,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1604,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1605,9 +1618,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1785,66 +1798,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -1944,9 +1957,15 @@
       <c r="AI8" s="6">
         <v>45069</v>
       </c>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="7"/>
+      <c r="AJ8" s="6">
+        <v>45057</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>45069</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>1</v>
+      </c>
       <c r="AM8" s="23" t="s">
         <v>47</v>
       </c>
@@ -2021,34 +2040,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2226,34 +2245,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2424,34 +2443,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2620,125 +2639,40 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2763,6 +2697,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA3D71-5B54-4D18-B02C-CD2E462E6041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -238,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -557,14 +556,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,42 +621,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,25 +637,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
+    <cellStyle name="標準_システム管理" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -987,14 +986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM26" sqref="AM26"/>
+      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1019,11 +1018,11 @@
     <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="52" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="13" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="59" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="1.625" style="1" customWidth="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1044,376 +1043,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1426,8 +1425,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1440,9 +1439,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1454,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1469,9 +1468,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1484,8 +1483,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1498,10 +1497,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1514,8 +1513,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1528,10 +1527,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1544,8 +1543,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1558,10 +1557,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1574,8 +1573,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1588,10 +1587,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1604,8 +1603,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1618,9 +1617,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1720,9 +1719,15 @@
       <c r="AI7" s="6">
         <v>45069</v>
       </c>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="7"/>
+      <c r="AJ7" s="6">
+        <v>45057</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>45069</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>1</v>
+      </c>
       <c r="AM7" s="23" t="s">
         <v>36</v>
       </c>
@@ -1798,66 +1803,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2040,34 +2045,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2245,34 +2250,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2443,34 +2448,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2639,40 +2644,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2697,91 +2787,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2840,7 +2845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315604C5-68D6-4B76-8627-B0B8ED1D65D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -237,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -556,7 +544,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,86 +597,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
-    <cellStyle name="標準_システム管理" xfId="1"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -986,23 +974,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
+      <selection pane="bottomRight" activeCell="BB7" sqref="BB7:BC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1012,407 +1000,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="1.58203125" style="1" customWidth="1"/>
     <col min="47" max="47" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="1.58203125" style="1" customWidth="1"/>
     <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="24">
+    <row r="3" spans="2:103" ht="23.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
-    <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+    <row r="5" spans="2:103" ht="14">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+    <row r="6" spans="2:103" ht="14">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1425,8 +1413,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1439,9 +1427,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1454,8 +1442,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1468,9 +1456,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1483,8 +1471,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1497,10 +1485,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1513,8 +1501,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1527,10 +1515,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1543,8 +1531,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1557,10 +1545,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1573,8 +1561,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1587,10 +1575,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1603,8 +1591,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1617,9 +1605,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1754,8 +1742,14 @@
         <f>AV7</f>
         <v>45071</v>
       </c>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
+      <c r="AX7" s="6">
+        <f>AW7</f>
+        <v>45071</v>
+      </c>
+      <c r="AY7" s="6">
+        <f>AX7</f>
+        <v>45071</v>
+      </c>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="23" t="s">
         <v>46</v>
@@ -1803,66 +1797,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2045,34 +2039,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2187,8 +2181,13 @@
         <f t="shared" si="1"/>
         <v>45070</v>
       </c>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
+      <c r="AP9" s="9">
+        <v>45070</v>
+      </c>
+      <c r="AQ9" s="9">
+        <f t="shared" ref="AQ9" si="8">AP9</f>
+        <v>45070</v>
+      </c>
       <c r="AR9" s="11"/>
       <c r="AS9" s="16"/>
       <c r="AT9" s="17"/>
@@ -2250,34 +2249,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2448,34 +2447,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2644,125 +2643,40 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2787,6 +2701,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2820,22 +2819,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:AZ11">
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="0" priority="66">
       <formula>$AY7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA7:BG11">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="65">
       <formula>$BE7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI7:BN11">
-    <cfRule type="expression" dxfId="1" priority="60">
+    <cfRule type="expression" dxfId="2" priority="60">
       <formula>$BM7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO7:BV11">
-    <cfRule type="expression" dxfId="0" priority="59">
+    <cfRule type="expression" dxfId="1" priority="59">
       <formula>$BS7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2845,14 +2844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315604C5-68D6-4B76-8627-B0B8ED1D65D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC1034A-D70A-49BB-8A84-9221DE142CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,14 +544,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,42 +609,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,18 +625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,7 +981,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BB7" sqref="BB7:BC7"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1031,376 +1031,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
     <row r="5" spans="2:103" ht="14">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1413,8 +1413,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1427,9 +1427,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1442,8 +1442,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1456,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1471,8 +1471,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1485,10 +1485,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1501,8 +1501,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1515,10 +1515,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1531,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1545,10 +1545,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1561,8 +1561,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1575,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1591,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1605,9 +1605,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1797,66 +1797,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2039,34 +2039,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2249,34 +2249,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2447,34 +2447,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2643,40 +2643,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2701,91 +2786,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2819,22 +2819,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:AZ11">
-    <cfRule type="expression" dxfId="0" priority="66">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>$AY7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA7:BG11">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$BE7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI7:BN11">
-    <cfRule type="expression" dxfId="2" priority="60">
+    <cfRule type="expression" dxfId="1" priority="60">
       <formula>$BM7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO7:BV11">
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="0" priority="59">
       <formula>$BS7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC1034A-D70A-49BB-8A84-9221DE142CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -225,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -544,7 +543,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,86 +596,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
+    <cellStyle name="標準_システム管理" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -974,23 +973,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="AI7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="BK19" sqref="BK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1000,407 +999,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.58203125" style="1" customWidth="1"/>
-    <col min="47" max="47" width="13" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="52" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="13" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="59" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.58203125" style="1" customWidth="1"/>
-    <col min="61" max="61" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="66" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="67" max="67" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="68" max="74" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="77" max="88" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="13" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="66" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="67" max="67" width="13" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="74" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.625" style="1" customWidth="1"/>
+    <col min="76" max="76" width="6.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="77" max="88" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.625" style="1" customWidth="1"/>
+    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="23.5">
+    <row r="3" spans="2:103" ht="24">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
-    <row r="5" spans="2:103" ht="14">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+    <row r="5" spans="2:103" ht="14.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+    <row r="6" spans="2:103" ht="14.25">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1413,8 +1412,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1427,9 +1426,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1442,8 +1441,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1455,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1471,8 +1470,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1485,10 +1484,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1501,8 +1500,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1515,10 +1514,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1530,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1545,10 +1544,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1561,8 +1560,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1574,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1590,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1605,9 +1604,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1797,66 +1796,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="41">
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="40">
         <v>45048</v>
       </c>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -1991,9 +1990,15 @@
         <f t="shared" ref="AW8:AW9" si="3">AV8</f>
         <v>45071</v>
       </c>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="7"/>
+      <c r="AX8" s="6">
+        <v>45071</v>
+      </c>
+      <c r="AY8" s="6">
+        <v>45071</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>1</v>
+      </c>
       <c r="BA8" s="23" t="s">
         <v>36</v>
       </c>
@@ -2004,9 +2009,15 @@
         <f t="shared" ref="BC8:BC9" si="4">BB8</f>
         <v>45072</v>
       </c>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="26"/>
+      <c r="BD8" s="6">
+        <v>45072</v>
+      </c>
+      <c r="BE8" s="6">
+        <v>45072</v>
+      </c>
+      <c r="BF8" s="26">
+        <v>1</v>
+      </c>
       <c r="BG8" s="13"/>
       <c r="BH8" s="18"/>
       <c r="BI8" s="25" t="str">
@@ -2039,34 +2050,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2249,34 +2260,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2447,34 +2458,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2643,125 +2654,40 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2786,6 +2712,91 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2844,14 +2855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10282BA-FA69-4EAB-90CB-FA850435EAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="13905"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -224,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -543,14 +544,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,42 +609,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,23 +627,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
-    <cellStyle name="標準_システム管理" xfId="1"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -973,23 +974,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="AI7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="AO7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BK19" sqref="BK19"/>
+      <selection pane="bottomRight" activeCell="BZ7" sqref="BZ7:BZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -999,407 +1000,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="1.58203125" style="1" customWidth="1"/>
     <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.625" style="1" customWidth="1"/>
-    <col min="76" max="76" width="6.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.58203125" style="1" customWidth="1"/>
+    <col min="76" max="76" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.625" style="1" customWidth="1"/>
-    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.58203125" style="1" customWidth="1"/>
+    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="24">
+    <row r="3" spans="2:103" ht="23.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
-    <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+    <row r="5" spans="2:103" ht="14">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+    <row r="6" spans="2:103" ht="14">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1412,8 +1413,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1426,9 +1427,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1441,8 +1442,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1455,9 +1456,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1470,8 +1471,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1484,10 +1485,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1500,8 +1501,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1514,10 +1515,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1531,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1544,10 +1545,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1560,8 +1561,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1574,10 +1575,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1590,8 +1591,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1604,9 +1605,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1776,8 +1777,13 @@
         <f>BJ7</f>
         <v>45075</v>
       </c>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="6"/>
+      <c r="BL7" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BM7" s="6">
+        <f>BL7</f>
+        <v>45075</v>
+      </c>
       <c r="BN7" s="7"/>
       <c r="BO7" s="23" t="s">
         <v>46</v>
@@ -1789,73 +1795,78 @@
         <f>BP7</f>
         <v>45075</v>
       </c>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
+      <c r="BR7" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BS7" s="6">
+        <f>BR7</f>
+        <v>45075</v>
+      </c>
       <c r="BT7" s="7"/>
       <c r="BU7" s="13"/>
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="41">
         <v>45048</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2050,34 +2061,34 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2260,34 +2271,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2458,34 +2469,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2654,40 +2665,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2712,91 +2808,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2855,14 +2866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED16E7-399C-4CAD-B611-4ED7616FAFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="13905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -224,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -543,14 +557,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,42 +622,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,25 +638,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2"/>
-    <cellStyle name="標準_システム管理" xfId="1"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -973,14 +987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="AI7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BK19" sqref="BK19"/>
+      <selection pane="bottomRight" activeCell="CC27" sqref="CC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1005,11 +1019,11 @@
     <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="52" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="59" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="52" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="13" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="59" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="1.625" style="1" customWidth="1"/>
     <col min="61" max="61" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1030,376 +1044,376 @@
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="47"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AU4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32" t="s">
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BX4" s="32" t="s">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BX4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32" t="s">
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="47"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="32"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="48" t="s">
+      <c r="CL4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32" t="s">
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
     </row>
     <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="31" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33" t="s">
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="33" t="s">
+      <c r="AN5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33" t="s">
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="31" t="s">
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="33" t="s">
+      <c r="AV5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33" t="s">
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33" t="s">
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="31" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="48" t="s">
+      <c r="BI5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="33" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33" t="s">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="31" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="32" t="s">
+      <c r="BO5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="33" t="s">
+      <c r="BP5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33" t="s">
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="31" t="s">
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="31" t="s">
+      <c r="BU5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="32" t="s">
+      <c r="BX5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="33" t="s">
+      <c r="BY5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="31" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="32" t="s">
+      <c r="CD5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="33" t="s">
+      <c r="CE5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="31" t="s">
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="48" t="s">
+      <c r="CL5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="33" t="s">
+      <c r="CM5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="31" t="s">
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="32" t="s">
+      <c r="CR5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="31" t="s">
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="31" t="s">
+      <c r="CX5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="CY5" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1412,8 +1426,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1426,9 +1440,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1441,8 +1455,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1455,9 +1469,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AG6" s="32"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AG6" s="31"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1470,8 +1484,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1484,10 +1498,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="47"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="32"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1500,8 +1514,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1514,10 +1528,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="48"/>
+      <c r="BI6" s="33"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1544,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1544,10 +1558,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BX6" s="32"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BX6" s="31"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1560,8 +1574,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="32"/>
-      <c r="CD6" s="32"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1574,10 +1588,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="32"/>
-      <c r="CJ6" s="47"/>
+      <c r="CI6" s="31"/>
+      <c r="CJ6" s="32"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="48"/>
+      <c r="CL6" s="33"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1590,8 +1604,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="32"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1604,9 +1618,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="32"/>
-      <c r="CY6" s="32"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1796,66 +1810,66 @@
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="55" t="s">
+      <c r="BX7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="40">
+      <c r="BY7" s="41">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="40">
+      <c r="BZ7" s="41">
         <v>45076</v>
       </c>
-      <c r="CA7" s="37"/>
-      <c r="CB7" s="40">
-        <v>45048</v>
-      </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="34" t="s">
+      <c r="CA7" s="44">
+        <v>45075</v>
+      </c>
+      <c r="CB7" s="41"/>
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="40">
+      <c r="CE7" s="41">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="40">
+      <c r="CF7" s="41">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="43"/>
-      <c r="CJ7" s="49"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="53"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="52" t="s">
+      <c r="CL7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="40">
+      <c r="CM7" s="41">
         <v>45077</v>
       </c>
-      <c r="CN7" s="40">
+      <c r="CN7" s="41">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="40"/>
-      <c r="CP7" s="40"/>
-      <c r="CQ7" s="43"/>
-      <c r="CR7" s="34" t="s">
+      <c r="CO7" s="41"/>
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="47"/>
+      <c r="CR7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="44">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="40">
+      <c r="CT7" s="41">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="40"/>
-      <c r="CV7" s="40"/>
-      <c r="CW7" s="43"/>
-      <c r="CX7" s="43"/>
-      <c r="CY7" s="43"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="47"/>
+      <c r="CX7" s="47"/>
+      <c r="CY7" s="47"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2031,9 +2045,15 @@
         <f t="shared" ref="BK8:BK9" si="6">BJ8</f>
         <v>45075</v>
       </c>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="7"/>
+      <c r="BL8" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BM8" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BN8" s="7">
+        <v>1</v>
+      </c>
       <c r="BO8" s="23" t="s">
         <v>36</v>
       </c>
@@ -2045,39 +2065,45 @@
         <f t="shared" ref="BQ8:BQ9" si="7">BP8</f>
         <v>45075</v>
       </c>
-      <c r="BR8" s="6"/>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="7"/>
+      <c r="BR8" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BS8" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BT8" s="7">
+        <v>1</v>
+      </c>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="41"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="41"/>
-      <c r="CF8" s="41"/>
-      <c r="CG8" s="41"/>
-      <c r="CH8" s="41"/>
-      <c r="CI8" s="44"/>
-      <c r="CJ8" s="50"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="48"/>
+      <c r="CD8" s="51"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="54"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="35"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="41"/>
-      <c r="CW8" s="44"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="44"/>
+      <c r="CL8" s="57"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="48"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="48"/>
+      <c r="CY8" s="48"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2212,9 +2238,15 @@
         <f t="shared" si="3"/>
         <v>45071</v>
       </c>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="7"/>
+      <c r="AX9" s="6">
+        <v>45071</v>
+      </c>
+      <c r="AY9" s="6">
+        <v>45071</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>1</v>
+      </c>
       <c r="BA9" s="23" t="s">
         <v>34</v>
       </c>
@@ -2225,9 +2257,15 @@
         <f t="shared" si="4"/>
         <v>45072</v>
       </c>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="26"/>
+      <c r="BD9" s="6">
+        <v>45072</v>
+      </c>
+      <c r="BE9" s="6">
+        <v>45072</v>
+      </c>
+      <c r="BF9" s="26">
+        <v>1</v>
+      </c>
       <c r="BG9" s="13"/>
       <c r="BH9" s="18"/>
       <c r="BI9" s="25" t="str">
@@ -2241,9 +2279,15 @@
         <f t="shared" si="6"/>
         <v>45075</v>
       </c>
-      <c r="BL9" s="6"/>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="7"/>
+      <c r="BL9" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BM9" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BN9" s="7">
+        <v>1</v>
+      </c>
       <c r="BO9" s="23" t="s">
         <v>34</v>
       </c>
@@ -2254,40 +2298,46 @@
         <f t="shared" si="7"/>
         <v>45075</v>
       </c>
-      <c r="BR9" s="6"/>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="7"/>
+      <c r="BR9" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BS9" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BT9" s="7">
+        <v>1</v>
+      </c>
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41"/>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="50"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="48"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="54"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="53"/>
-      <c r="CM9" s="41"/>
-      <c r="CN9" s="41"/>
-      <c r="CO9" s="41"/>
-      <c r="CP9" s="41"/>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="41"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="41"/>
-      <c r="CW9" s="44"/>
-      <c r="CX9" s="44"/>
-      <c r="CY9" s="44"/>
+      <c r="CL9" s="57"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="51"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2458,34 +2508,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="41"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="41"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="41"/>
-      <c r="CF10" s="41"/>
-      <c r="CG10" s="41"/>
-      <c r="CH10" s="41"/>
-      <c r="CI10" s="44"/>
-      <c r="CJ10" s="50"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="48"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="48"/>
+      <c r="CJ10" s="54"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="41"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
-      <c r="CP10" s="41"/>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="41"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="41"/>
-      <c r="CW10" s="44"/>
-      <c r="CX10" s="44"/>
-      <c r="CY10" s="44"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="48"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="48"/>
+      <c r="CX10" s="48"/>
+      <c r="CY10" s="48"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2654,40 +2704,125 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="42"/>
-      <c r="BZ11" s="42"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="42"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="42"/>
-      <c r="CH11" s="42"/>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="51"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="46"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="55"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="39"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="42"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
+      <c r="CL11" s="58"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="46"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2712,91 +2847,6 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
@@ -2855,7 +2905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2023-05/スケジュール（2023-05）.xlsx
+++ b/2023-05/スケジュール（2023-05）.xlsx
@@ -5,31 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED16E7-399C-4CAD-B611-4ED7616FAFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A89206-3427-4166-9755-B7F26B6B3C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="定数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -557,7 +544,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,88 +597,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -991,19 +985,19 @@
   <dimension ref="B3:CZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="BC7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CC27" sqref="CC27"/>
+      <selection pane="bottomRight" activeCell="BN8" sqref="BN7:BN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.58203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="10" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="13" style="8" customWidth="1" outlineLevel="1"/>
@@ -1013,407 +1007,407 @@
     <col min="20" max="24" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="26" max="31" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="1.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="1.58203125" style="1" customWidth="1"/>
     <col min="33" max="33" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="34" max="38" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="40" max="45" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="1.625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="1.58203125" style="1" customWidth="1"/>
     <col min="47" max="47" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="48" max="52" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="54" max="59" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="1.625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="1.58203125" style="1" customWidth="1"/>
     <col min="61" max="61" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="62" max="66" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="67" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="68" max="74" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="1.625" style="1" customWidth="1"/>
-    <col min="76" max="76" width="6.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="1.58203125" style="1" customWidth="1"/>
+    <col min="76" max="76" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="77" max="88" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="89" max="89" width="1.625" style="1" customWidth="1"/>
-    <col min="90" max="90" width="6.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="1.58203125" style="1" customWidth="1"/>
+    <col min="90" max="90" width="6.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="91" max="103" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="1.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="105" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:103" ht="24">
+    <row r="3" spans="2:103" ht="23.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:103" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="S4" s="31" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AG4" s="31" t="s">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="47"/>
       <c r="AT4" s="28"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AU4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="29"/>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31" t="s">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BX4" s="31" t="s">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BX4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31" t="s">
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="47"/>
       <c r="CK4" s="30"/>
-      <c r="CL4" s="33" t="s">
+      <c r="CL4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
     </row>
-    <row r="5" spans="2:103" ht="14.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31" t="s">
+    <row r="5" spans="2:103" ht="14">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="36" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="36" t="s">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34" t="s">
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="36" t="s">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="40" t="s">
+      <c r="AS5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AT5" s="17"/>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="34" t="s">
+      <c r="AV5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34" t="s">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="36" t="s">
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BG5" s="36" t="s">
+      <c r="BG5" s="31" t="s">
         <v>23</v>
       </c>
       <c r="BH5" s="18"/>
-      <c r="BI5" s="33" t="s">
+      <c r="BI5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BJ5" s="34" t="s">
+      <c r="BJ5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34" t="s">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="34" t="s">
+      <c r="BP5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34" t="s">
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="36" t="s">
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="BU5" s="36" t="s">
+      <c r="BU5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="31" t="s">
+      <c r="BX5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="34" t="s">
+      <c r="BY5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34" t="s">
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="36" t="s">
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CD5" s="31" t="s">
+      <c r="CD5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="34" t="s">
+      <c r="CE5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34" t="s">
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="36" t="s">
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CJ5" s="40" t="s">
+      <c r="CJ5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CK5" s="14"/>
-      <c r="CL5" s="33" t="s">
+      <c r="CL5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CM5" s="34" t="s">
+      <c r="CM5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34" t="s">
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="36" t="s">
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CR5" s="31" t="s">
+      <c r="CR5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="34" t="s">
+      <c r="CS5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="CT5" s="34"/>
-      <c r="CU5" s="34" t="s">
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="36" t="s">
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="CX5" s="36" t="s">
+      <c r="CX5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="CY5" s="36" t="s">
+      <c r="CY5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:103" ht="14.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
+    <row r="6" spans="2:103" ht="14">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1426,8 +1420,8 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1440,9 +1434,9 @@
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1449,8 @@
       <c r="W6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1469,9 +1463,9 @@
       <c r="AC6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AG6" s="31"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AG6" s="32"/>
       <c r="AH6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1484,8 +1478,8 @@
       <c r="AK6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
       <c r="AN6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1498,10 +1492,10 @@
       <c r="AQ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="17"/>
-      <c r="AU6" s="31"/>
+      <c r="AU6" s="32"/>
       <c r="AV6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1514,8 +1508,8 @@
       <c r="AY6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
       <c r="BB6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1528,10 +1522,10 @@
       <c r="BE6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
       <c r="BH6" s="18"/>
-      <c r="BI6" s="33"/>
+      <c r="BI6" s="48"/>
       <c r="BJ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1544,8 +1538,8 @@
       <c r="BM6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
       <c r="BP6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1558,10 +1552,10 @@
       <c r="BS6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BX6" s="32"/>
       <c r="BY6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1574,8 +1568,8 @@
       <c r="CB6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
       <c r="CE6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1588,10 +1582,10 @@
       <c r="CH6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="31"/>
-      <c r="CJ6" s="32"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="47"/>
       <c r="CK6" s="14"/>
-      <c r="CL6" s="33"/>
+      <c r="CL6" s="48"/>
       <c r="CM6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1604,8 +1598,8 @@
       <c r="CP6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="32"/>
       <c r="CS6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1618,9 +1612,9 @@
       <c r="CV6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="32"/>
     </row>
     <row r="7" spans="2:103" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -1774,8 +1768,13 @@
         <f>BB7</f>
         <v>45072</v>
       </c>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
+      <c r="BD7" s="6">
+        <v>45072</v>
+      </c>
+      <c r="BE7" s="6">
+        <f>BD7</f>
+        <v>45072</v>
+      </c>
       <c r="BF7" s="26"/>
       <c r="BG7" s="13"/>
       <c r="BH7" s="18"/>
@@ -1790,9 +1789,15 @@
         <f>BJ7</f>
         <v>45075</v>
       </c>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="7"/>
+      <c r="BL7" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BM7" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BN7" s="7">
+        <v>1</v>
+      </c>
       <c r="BO7" s="23" t="s">
         <v>46</v>
       </c>
@@ -1803,73 +1808,79 @@
         <f>BP7</f>
         <v>45075</v>
       </c>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="7"/>
+      <c r="BR7" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BS7" s="6">
+        <v>45075</v>
+      </c>
+      <c r="BT7" s="7">
+        <v>1</v>
+      </c>
       <c r="BU7" s="13"/>
       <c r="BV7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BX7" s="37" t="s">
+      <c r="BX7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BY7" s="41">
+      <c r="BY7" s="40">
         <f>BP7+1</f>
         <v>45076</v>
       </c>
-      <c r="BZ7" s="41">
+      <c r="BZ7" s="40">
         <v>45076</v>
       </c>
-      <c r="CA7" s="44">
-        <v>45075</v>
-      </c>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="50" t="s">
+      <c r="CA7" s="37">
+        <v>45075</v>
+      </c>
+      <c r="CB7" s="40"/>
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CE7" s="41">
+      <c r="CE7" s="40">
         <f>BZ7</f>
         <v>45076</v>
       </c>
-      <c r="CF7" s="41">
+      <c r="CF7" s="40">
         <f>CE7</f>
         <v>45076</v>
       </c>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="53"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="49"/>
       <c r="CK7" s="14"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CL7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="CM7" s="41">
+      <c r="CM7" s="40">
         <v>45077</v>
       </c>
-      <c r="CN7" s="41">
+      <c r="CN7" s="40">
         <f>CM7</f>
         <v>45077</v>
       </c>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="50" t="s">
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CS7" s="44">
+      <c r="CS7" s="37">
         <f>CN7</f>
         <v>45077</v>
       </c>
-      <c r="CT7" s="41">
+      <c r="CT7" s="40">
         <f>CS7</f>
         <v>45077</v>
       </c>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="47"/>
-      <c r="CX7" s="47"/>
-      <c r="CY7" s="47"/>
+      <c r="CU7" s="40"/>
+      <c r="CV7" s="40"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
     </row>
     <row r="8" spans="2:103" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -2076,34 +2087,34 @@
       </c>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="48"/>
-      <c r="CD8" s="51"/>
-      <c r="CE8" s="42"/>
-      <c r="CF8" s="42"/>
-      <c r="CG8" s="42"/>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="54"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="41"/>
+      <c r="CG8" s="41"/>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="50"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="42"/>
-      <c r="CQ8" s="48"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="42"/>
-      <c r="CU8" s="42"/>
-      <c r="CV8" s="42"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="48"/>
-      <c r="CY8" s="48"/>
+      <c r="CL8" s="53"/>
+      <c r="CM8" s="41"/>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="41"/>
+      <c r="CP8" s="41"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="41"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
     </row>
     <row r="9" spans="2:103" ht="20.25" customHeight="1">
       <c r="B9" s="10">
@@ -2258,7 +2269,7 @@
         <v>45072</v>
       </c>
       <c r="BD9" s="6">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="BE9" s="6">
         <v>45072</v>
@@ -2310,34 +2321,34 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="54"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41"/>
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="50"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="42"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="51"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="42"/>
-      <c r="CU9" s="42"/>
-      <c r="CV9" s="42"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
+      <c r="CL9" s="53"/>
+      <c r="CM9" s="41"/>
+      <c r="CN9" s="41"/>
+      <c r="CO9" s="41"/>
+      <c r="CP9" s="41"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="35"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="41"/>
+      <c r="CW9" s="44"/>
+      <c r="CX9" s="44"/>
+      <c r="CY9" s="44"/>
     </row>
     <row r="10" spans="2:103" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -2508,34 +2519,34 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="48"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="42"/>
-      <c r="CF10" s="42"/>
-      <c r="CG10" s="42"/>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="48"/>
-      <c r="CJ10" s="54"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="50"/>
       <c r="CK10" s="14"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="42"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="42"/>
-      <c r="CQ10" s="48"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="42"/>
-      <c r="CU10" s="42"/>
-      <c r="CV10" s="42"/>
-      <c r="CW10" s="48"/>
-      <c r="CX10" s="48"/>
-      <c r="CY10" s="48"/>
+      <c r="CL10" s="53"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
     </row>
     <row r="11" spans="2:103" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -2704,125 +2715,40 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="55"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="42"/>
+      <c r="BZ11" s="42"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="51"/>
       <c r="CK11" s="14"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="49"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="46"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="49"/>
-      <c r="CX11" s="49"/>
-      <c r="CY11" s="49"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="39"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
     </row>
     <row r="12" spans="2:103">
       <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CW5:CW6"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR11"/>
-    <mergeCell ref="CS7:CS11"/>
-    <mergeCell ref="CT7:CT11"/>
-    <mergeCell ref="CU7:CU11"/>
-    <mergeCell ref="CV7:CV11"/>
-    <mergeCell ref="CW7:CW11"/>
-    <mergeCell ref="CX7:CX11"/>
-    <mergeCell ref="CY7:CY11"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CH7:CH11"/>
-    <mergeCell ref="CI7:CI11"/>
-    <mergeCell ref="CJ7:CJ11"/>
-    <mergeCell ref="CL7:CL11"/>
-    <mergeCell ref="CM7:CM11"/>
-    <mergeCell ref="CN7:CN11"/>
-    <mergeCell ref="CO7:CO11"/>
-    <mergeCell ref="CP7:CP11"/>
-    <mergeCell ref="CQ7:CQ11"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BY7:BY11"/>
-    <mergeCell ref="BZ7:BZ11"/>
-    <mergeCell ref="CA7:CA11"/>
-    <mergeCell ref="CB7:CB11"/>
-    <mergeCell ref="CC7:CC11"/>
-    <mergeCell ref="CD7:CD11"/>
-    <mergeCell ref="CE7:CE11"/>
-    <mergeCell ref="CF7:CF11"/>
-    <mergeCell ref="CG7:CG11"/>
-    <mergeCell ref="BX7:BX11"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BT5:BT6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BX4:CC4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="CC5:CC6"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="CL4:CQ4"/>
     <mergeCell ref="CR4:CY4"/>
@@ -2847,56 +2773,146 @@
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BX4:CC4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="BX7:BX11"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BT5:BT6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BY7:BY11"/>
+    <mergeCell ref="BZ7:BZ11"/>
+    <mergeCell ref="CA7:CA11"/>
+    <mergeCell ref="CB7:CB11"/>
+    <mergeCell ref="CC7:CC11"/>
+    <mergeCell ref="CD7:CD11"/>
+    <mergeCell ref="CE7:CE11"/>
+    <mergeCell ref="CF7:CF11"/>
+    <mergeCell ref="CG7:CG11"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CH7:CH11"/>
+    <mergeCell ref="CI7:CI11"/>
+    <mergeCell ref="CJ7:CJ11"/>
+    <mergeCell ref="CL7:CL11"/>
+    <mergeCell ref="CM7:CM11"/>
+    <mergeCell ref="CN7:CN11"/>
+    <mergeCell ref="CO7:CO11"/>
+    <mergeCell ref="CP7:CP11"/>
+    <mergeCell ref="CQ7:CQ11"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CW5:CW6"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR11"/>
+    <mergeCell ref="CS7:CS11"/>
+    <mergeCell ref="CT7:CT11"/>
+    <mergeCell ref="CU7:CU11"/>
+    <mergeCell ref="CV7:CV11"/>
+    <mergeCell ref="CW7:CW11"/>
+    <mergeCell ref="CX7:CX11"/>
+    <mergeCell ref="CY7:CY11"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="E7:J11">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>$I7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:Q11">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$O7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:X11">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>$W7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7:AE11">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$AC7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7:AL11">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM7:AS11">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$AQ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7:AZ11">
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="4" priority="67">
       <formula>$AY7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA7:BG11">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>$BE7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI7:BN11">
-    <cfRule type="expression" dxfId="1" priority="60">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>$BM7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO7:BV11">
-    <cfRule type="expression" dxfId="0" priority="59">
+  <conditionalFormatting sqref="BO8:BV11 BO7:BQ7 BT7:BV7">
+    <cfRule type="expression" dxfId="1" priority="60">
       <formula>$BS7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR7:BS7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$BM7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2912,7 +2928,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
